--- a/Excel_Challenge_523 - Alphabets Staircase.xlsx
+++ b/Excel_Challenge_523 - Alphabets Staircase.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66AA604-7EEB-4FA1-AA3B-78AFDBC5C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90CFA4E-7BFB-405F-86CA-56035374DF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
+    <sheet name="EDA" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="26">
   <si>
     <t>R</t>
   </si>
@@ -164,7 +165,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -639,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3295AA3D-846A-4ED3-AA88-B82EA1C99271}">
   <dimension ref="A2:BA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,7 +952,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:BA29">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>A4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -952,4 +960,322 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8CB14F-BA25-459F-8E43-6681E414C01A}">
+  <dimension ref="A2:BA29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AW10" sqref="AW10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="53" width="2.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Q12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="S13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U14" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14" t="s">
+        <v>11</v>
+      </c>
+      <c r="W14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Y16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="27:53" x14ac:dyDescent="0.3">
+      <c r="AA17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="27:53" x14ac:dyDescent="0.3">
+      <c r="AC18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="27:53" x14ac:dyDescent="0.3">
+      <c r="AE19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="27:53" x14ac:dyDescent="0.3">
+      <c r="AG20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="27:53" x14ac:dyDescent="0.3">
+      <c r="AI21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="27:53" x14ac:dyDescent="0.3">
+      <c r="AK22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="27:53" x14ac:dyDescent="0.3">
+      <c r="AM23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="27:53" x14ac:dyDescent="0.3">
+      <c r="AO24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="27:53" x14ac:dyDescent="0.3">
+      <c r="AQ25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="27:53" x14ac:dyDescent="0.3">
+      <c r="AS26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="27:53" x14ac:dyDescent="0.3">
+      <c r="AU27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="27:53" x14ac:dyDescent="0.3">
+      <c r="AW28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="27:53" x14ac:dyDescent="0.3">
+      <c r="AY29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:BA29">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>A4&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_523 - Alphabets Staircase.xlsx
+++ b/Excel_Challenge_523 - Alphabets Staircase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90CFA4E-7BFB-405F-86CA-56035374DF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB8874E-C070-441B-B7A2-6F749A636A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -648,7 +670,7 @@
   <dimension ref="A2:BA29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,15 +986,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8CB14F-BA25-459F-8E43-6681E414C01A}">
-  <dimension ref="A2:BA29"/>
+  <dimension ref="A2:BA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW10" sqref="AW10"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="53" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="53" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -993,6 +1016,9 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -1004,6 +1030,9 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
@@ -1015,6 +1044,9 @@
       <c r="G6" t="s">
         <v>3</v>
       </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
@@ -1026,6 +1058,9 @@
       <c r="I7" t="s">
         <v>4</v>
       </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
@@ -1126,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="27:53" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AA17" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="27:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AC18" t="s">
         <v>15</v>
       </c>
@@ -1148,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="27:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AE19" t="s">
         <v>16</v>
       </c>
@@ -1159,7 +1194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="27:53" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AG20" t="s">
         <v>17</v>
       </c>
@@ -1170,7 +1205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="27:53" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AI21" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="27:53" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AK22" t="s">
         <v>18</v>
       </c>
@@ -1192,7 +1227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="27:53" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AM23" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="27:53" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AO24" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="27:53" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AQ25" t="s">
         <v>21</v>
       </c>
@@ -1225,7 +1260,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="27:53" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AS26" t="s">
         <v>22</v>
       </c>
@@ -1236,7 +1271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="27:53" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AU27" t="s">
         <v>23</v>
       </c>
@@ -1247,7 +1282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="27:53" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW28" t="s">
         <v>24</v>
       </c>
@@ -1258,7 +1293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="27:53" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AY29" t="s">
         <v>25</v>
       </c>
@@ -1267,6 +1302,130 @@
       </c>
       <c r="BA29" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A32" cm="1">
+        <f t="array" ref="A32:A54">_xlfn.SEQUENCE(23,1,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="b" cm="1">
+        <f t="array" ref="A55">_xlfn.LAMBDA(_xlpm.x,
+        OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(A55),1))
+)(A55)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Challenge_523 - Alphabets Staircase.xlsx
+++ b/Excel_Challenge_523 - Alphabets Staircase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB8874E-C070-441B-B7A2-6F749A636A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D625E0EA-2CC3-4396-B195-1F9BF481AFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
     <sheet name="EDA" sheetId="3" r:id="rId2"/>
+    <sheet name="Alt1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="26">
   <si>
     <t>R</t>
   </si>
@@ -404,6 +405,60 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>48681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="A close-up of several logos&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6D15AD-20D5-453E-B22F-1D97B5B3BEC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="3166110"/>
+          <a:ext cx="1069340" cy="597321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -986,16 +1041,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8CB14F-BA25-459F-8E43-6681E414C01A}">
-  <dimension ref="A2:BA55"/>
+  <dimension ref="A2:BA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="53" width="2.6640625" customWidth="1"/>
+    <col min="2" max="53" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -1390,42 +1445,3442 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A55" t="b" cm="1">
-        <f t="array" ref="A55">_xlfn.LAMBDA(_xlpm.x,
-        OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(A55),1))
+        <f t="array" ref="A55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(A$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
 )(A55)</f>
         <v>1</v>
+      </c>
+      <c r="B55" t="b" cm="1">
+        <f t="array" ref="B55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(B$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(B55)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" t="b" cm="1">
+        <f t="array" ref="C55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(C$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(C55)</f>
+        <v>1</v>
+      </c>
+      <c r="D55" t="b" cm="1">
+        <f t="array" ref="D55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(D$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E55" t="b" cm="1">
+        <f t="array" ref="E55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(E$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(E55)</f>
+        <v>1</v>
+      </c>
+      <c r="F55" t="b" cm="1">
+        <f t="array" ref="F55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(F$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(F55)</f>
+        <v>0</v>
+      </c>
+      <c r="G55" t="b" cm="1">
+        <f t="array" ref="G55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(G$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(G55)</f>
+        <v>1</v>
+      </c>
+      <c r="H55" t="b" cm="1">
+        <f t="array" ref="H55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(H$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(H55)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" t="b" cm="1">
+        <f t="array" ref="I55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(I$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(I55)</f>
+        <v>1</v>
+      </c>
+      <c r="J55" t="b" cm="1">
+        <f t="array" ref="J55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(J$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(J55)</f>
+        <v>0</v>
+      </c>
+      <c r="K55" t="b" cm="1">
+        <f t="array" ref="K55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(K$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(K55)</f>
+        <v>1</v>
+      </c>
+      <c r="L55" t="b" cm="1">
+        <f t="array" ref="L55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(L$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(L55)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" t="b" cm="1">
+        <f t="array" ref="M55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(M$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(M55)</f>
+        <v>1</v>
+      </c>
+      <c r="N55" t="b" cm="1">
+        <f t="array" ref="N55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(N$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(N55)</f>
+        <v>0</v>
+      </c>
+      <c r="O55" t="b" cm="1">
+        <f t="array" ref="O55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(O$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(O55)</f>
+        <v>1</v>
+      </c>
+      <c r="P55" t="b" cm="1">
+        <f t="array" ref="P55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(P$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(P55)</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" t="b" cm="1">
+        <f t="array" ref="Q55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Q$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Q55)</f>
+        <v>1</v>
+      </c>
+      <c r="R55" t="b" cm="1">
+        <f t="array" ref="R55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(R$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(R55)</f>
+        <v>0</v>
+      </c>
+      <c r="S55" t="b" cm="1">
+        <f t="array" ref="S55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(S$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(S55)</f>
+        <v>1</v>
+      </c>
+      <c r="T55" t="b" cm="1">
+        <f t="array" ref="T55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(T$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(T55)</f>
+        <v>0</v>
+      </c>
+      <c r="U55" t="b" cm="1">
+        <f t="array" ref="U55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(U$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(U55)</f>
+        <v>1</v>
+      </c>
+      <c r="V55" t="b" cm="1">
+        <f t="array" ref="V55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(V$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(V55)</f>
+        <v>0</v>
+      </c>
+      <c r="W55" t="b" cm="1">
+        <f t="array" ref="W55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(W$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(W55)</f>
+        <v>1</v>
+      </c>
+      <c r="X55" t="b" cm="1">
+        <f t="array" ref="X55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(X$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(X55)</f>
+        <v>0</v>
+      </c>
+      <c r="Y55" t="b" cm="1">
+        <f t="array" ref="Y55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Y$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Y55)</f>
+        <v>1</v>
+      </c>
+      <c r="Z55" t="b" cm="1">
+        <f t="array" ref="Z55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Z$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Z55)</f>
+        <v>0</v>
+      </c>
+      <c r="AA55" t="b" cm="1">
+        <f t="array" ref="AA55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AA55)</f>
+        <v>1</v>
+      </c>
+      <c r="AB55" t="b" cm="1">
+        <f t="array" ref="AB55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AB$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AB55)</f>
+        <v>0</v>
+      </c>
+      <c r="AC55" t="b" cm="1">
+        <f t="array" ref="AC55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AC$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AC55)</f>
+        <v>1</v>
+      </c>
+      <c r="AD55" t="b" cm="1">
+        <f t="array" ref="AD55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AD$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AD55)</f>
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b" cm="1">
+        <f t="array" ref="AE55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AE$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AE55)</f>
+        <v>1</v>
+      </c>
+      <c r="AF55" t="b" cm="1">
+        <f t="array" ref="AF55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AF$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AF55)</f>
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b" cm="1">
+        <f t="array" ref="AG55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AG$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AG55)</f>
+        <v>1</v>
+      </c>
+      <c r="AH55" t="b" cm="1">
+        <f t="array" ref="AH55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AH$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AH55)</f>
+        <v>0</v>
+      </c>
+      <c r="AI55" t="b" cm="1">
+        <f t="array" ref="AI55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AI$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AI55)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ55" t="b" cm="1">
+        <f t="array" ref="AJ55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AJ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AJ55)</f>
+        <v>0</v>
+      </c>
+      <c r="AK55" t="b" cm="1">
+        <f t="array" ref="AK55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AK$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AK55)</f>
+        <v>1</v>
+      </c>
+      <c r="AL55" t="b" cm="1">
+        <f t="array" ref="AL55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AL$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AL55)</f>
+        <v>0</v>
+      </c>
+      <c r="AM55" t="b" cm="1">
+        <f t="array" ref="AM55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AM$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AM55)</f>
+        <v>1</v>
+      </c>
+      <c r="AN55" t="b" cm="1">
+        <f t="array" ref="AN55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AN$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AN55)</f>
+        <v>0</v>
+      </c>
+      <c r="AO55" t="b" cm="1">
+        <f t="array" ref="AO55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AO$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AO55)</f>
+        <v>1</v>
+      </c>
+      <c r="AP55" t="b" cm="1">
+        <f t="array" ref="AP55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AP$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AP55)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ55" t="b" cm="1">
+        <f t="array" ref="AQ55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AQ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AQ55)</f>
+        <v>1</v>
+      </c>
+      <c r="AR55" t="b" cm="1">
+        <f t="array" ref="AR55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AR$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AR55)</f>
+        <v>0</v>
+      </c>
+      <c r="AS55" t="b" cm="1">
+        <f t="array" ref="AS55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AS$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AS55)</f>
+        <v>1</v>
+      </c>
+      <c r="AT55" t="b" cm="1">
+        <f t="array" ref="AT55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AT$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AT55)</f>
+        <v>0</v>
+      </c>
+      <c r="AU55" t="b" cm="1">
+        <f t="array" ref="AU55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AU$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AU55)</f>
+        <v>0</v>
+      </c>
+      <c r="AV55" t="b" cm="1">
+        <f t="array" ref="AV55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AV$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AV55)</f>
+        <v>0</v>
+      </c>
+      <c r="AW55" t="b" cm="1">
+        <f t="array" ref="AW55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AW$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AW55)</f>
+        <v>0</v>
+      </c>
+      <c r="AX55" t="b" cm="1">
+        <f t="array" ref="AX55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AX$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AX55)</f>
+        <v>0</v>
+      </c>
+      <c r="AY55" t="b" cm="1">
+        <f t="array" ref="AY55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AY$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AY55)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="b" cm="1">
+        <f t="array" ref="AZ55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AZ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AZ55)</f>
+        <v>0</v>
+      </c>
+      <c r="BA55" t="b" cm="1">
+        <f t="array" ref="BA55">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(BA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(BA55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A56" t="b" cm="1">
+        <f t="array" ref="A56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(A$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(A56)</f>
+        <v>1</v>
+      </c>
+      <c r="B56" t="b" cm="1">
+        <f t="array" ref="B56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(B$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(B56)</f>
+        <v>0</v>
+      </c>
+      <c r="C56" t="b" cm="1">
+        <f t="array" ref="C56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(C$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(C56)</f>
+        <v>1</v>
+      </c>
+      <c r="D56" t="b" cm="1">
+        <f t="array" ref="D56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(D$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(D56)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" t="b" cm="1">
+        <f t="array" ref="E56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(E$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(E56)</f>
+        <v>1</v>
+      </c>
+      <c r="F56" t="b" cm="1">
+        <f t="array" ref="F56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(F$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(F56)</f>
+        <v>0</v>
+      </c>
+      <c r="G56" t="b" cm="1">
+        <f t="array" ref="G56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(G$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(G56)</f>
+        <v>1</v>
+      </c>
+      <c r="H56" t="b" cm="1">
+        <f t="array" ref="H56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(H$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(H56)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" t="b" cm="1">
+        <f t="array" ref="I56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(I$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(I56)</f>
+        <v>1</v>
+      </c>
+      <c r="J56" t="b" cm="1">
+        <f t="array" ref="J56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(J$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(J56)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" t="b" cm="1">
+        <f t="array" ref="K56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(K$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(K56)</f>
+        <v>1</v>
+      </c>
+      <c r="L56" t="b" cm="1">
+        <f t="array" ref="L56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(L$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(L56)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" t="b" cm="1">
+        <f t="array" ref="M56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(M$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(M56)</f>
+        <v>1</v>
+      </c>
+      <c r="N56" t="b" cm="1">
+        <f t="array" ref="N56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(N$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(N56)</f>
+        <v>0</v>
+      </c>
+      <c r="O56" t="b" cm="1">
+        <f t="array" ref="O56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(O$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(O56)</f>
+        <v>1</v>
+      </c>
+      <c r="P56" t="b" cm="1">
+        <f t="array" ref="P56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(P$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(P56)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" t="b" cm="1">
+        <f t="array" ref="Q56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Q$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Q56)</f>
+        <v>1</v>
+      </c>
+      <c r="R56" t="b" cm="1">
+        <f t="array" ref="R56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(R$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(R56)</f>
+        <v>0</v>
+      </c>
+      <c r="S56" t="b" cm="1">
+        <f t="array" ref="S56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(S$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(S56)</f>
+        <v>1</v>
+      </c>
+      <c r="T56" t="b" cm="1">
+        <f t="array" ref="T56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(T$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(T56)</f>
+        <v>0</v>
+      </c>
+      <c r="U56" t="b" cm="1">
+        <f t="array" ref="U56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(U$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(U56)</f>
+        <v>1</v>
+      </c>
+      <c r="V56" t="b" cm="1">
+        <f t="array" ref="V56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(V$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(V56)</f>
+        <v>0</v>
+      </c>
+      <c r="W56" t="b" cm="1">
+        <f t="array" ref="W56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(W$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(W56)</f>
+        <v>1</v>
+      </c>
+      <c r="X56" t="b" cm="1">
+        <f t="array" ref="X56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(X$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(X56)</f>
+        <v>0</v>
+      </c>
+      <c r="Y56" t="b" cm="1">
+        <f t="array" ref="Y56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Y$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Y56)</f>
+        <v>1</v>
+      </c>
+      <c r="Z56" t="b" cm="1">
+        <f t="array" ref="Z56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Z$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Z56)</f>
+        <v>0</v>
+      </c>
+      <c r="AA56" t="b" cm="1">
+        <f t="array" ref="AA56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AA56)</f>
+        <v>1</v>
+      </c>
+      <c r="AB56" t="b" cm="1">
+        <f t="array" ref="AB56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AB$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AB56)</f>
+        <v>0</v>
+      </c>
+      <c r="AC56" t="b" cm="1">
+        <f t="array" ref="AC56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AC$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AC56)</f>
+        <v>1</v>
+      </c>
+      <c r="AD56" t="b" cm="1">
+        <f t="array" ref="AD56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AD$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AD56)</f>
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b" cm="1">
+        <f t="array" ref="AE56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AE$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AE56)</f>
+        <v>1</v>
+      </c>
+      <c r="AF56" t="b" cm="1">
+        <f t="array" ref="AF56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AF$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AF56)</f>
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b" cm="1">
+        <f t="array" ref="AG56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AG$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AG56)</f>
+        <v>1</v>
+      </c>
+      <c r="AH56" t="b" cm="1">
+        <f t="array" ref="AH56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AH$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AH56)</f>
+        <v>0</v>
+      </c>
+      <c r="AI56" t="b" cm="1">
+        <f t="array" ref="AI56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AI$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AI56)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ56" t="b" cm="1">
+        <f t="array" ref="AJ56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AJ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AJ56)</f>
+        <v>0</v>
+      </c>
+      <c r="AK56" t="b" cm="1">
+        <f t="array" ref="AK56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AK$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AK56)</f>
+        <v>1</v>
+      </c>
+      <c r="AL56" t="b" cm="1">
+        <f t="array" ref="AL56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AL$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AL56)</f>
+        <v>0</v>
+      </c>
+      <c r="AM56" t="b" cm="1">
+        <f t="array" ref="AM56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AM$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AM56)</f>
+        <v>1</v>
+      </c>
+      <c r="AN56" t="b" cm="1">
+        <f t="array" ref="AN56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AN$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AN56)</f>
+        <v>0</v>
+      </c>
+      <c r="AO56" t="b" cm="1">
+        <f t="array" ref="AO56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AO$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AO56)</f>
+        <v>1</v>
+      </c>
+      <c r="AP56" t="b" cm="1">
+        <f t="array" ref="AP56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AP$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AP56)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ56" t="b" cm="1">
+        <f t="array" ref="AQ56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AQ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AQ56)</f>
+        <v>1</v>
+      </c>
+      <c r="AR56" t="b" cm="1">
+        <f t="array" ref="AR56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AR$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AR56)</f>
+        <v>0</v>
+      </c>
+      <c r="AS56" t="b" cm="1">
+        <f t="array" ref="AS56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AS$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AS56)</f>
+        <v>1</v>
+      </c>
+      <c r="AT56" t="b" cm="1">
+        <f t="array" ref="AT56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AT$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AT56)</f>
+        <v>0</v>
+      </c>
+      <c r="AU56" t="b" cm="1">
+        <f t="array" ref="AU56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AU$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AU56)</f>
+        <v>0</v>
+      </c>
+      <c r="AV56" t="b" cm="1">
+        <f t="array" ref="AV56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AV$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AV56)</f>
+        <v>0</v>
+      </c>
+      <c r="AW56" t="b" cm="1">
+        <f t="array" ref="AW56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AW$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AW56)</f>
+        <v>0</v>
+      </c>
+      <c r="AX56" t="b" cm="1">
+        <f t="array" ref="AX56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AX$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AX56)</f>
+        <v>0</v>
+      </c>
+      <c r="AY56" t="b" cm="1">
+        <f t="array" ref="AY56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AY$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AY56)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="b" cm="1">
+        <f t="array" ref="AZ56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AZ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AZ56)</f>
+        <v>0</v>
+      </c>
+      <c r="BA56" t="b" cm="1">
+        <f t="array" ref="BA56">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(BA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(BA56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A57" t="b" cm="1">
+        <f t="array" ref="A57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(A$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(A57)</f>
+        <v>1</v>
+      </c>
+      <c r="B57" t="b" cm="1">
+        <f t="array" ref="B57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(B$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(B57)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" t="b" cm="1">
+        <f t="array" ref="C57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(C$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(C57)</f>
+        <v>1</v>
+      </c>
+      <c r="D57" t="b" cm="1">
+        <f t="array" ref="D57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(D$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(D57)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" t="b" cm="1">
+        <f t="array" ref="E57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(E$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(E57)</f>
+        <v>1</v>
+      </c>
+      <c r="F57" t="b" cm="1">
+        <f t="array" ref="F57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(F$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(F57)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" t="b" cm="1">
+        <f t="array" ref="G57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(G$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(G57)</f>
+        <v>1</v>
+      </c>
+      <c r="H57" t="b" cm="1">
+        <f t="array" ref="H57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(H$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(H57)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" t="b" cm="1">
+        <f t="array" ref="I57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(I$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(I57)</f>
+        <v>1</v>
+      </c>
+      <c r="J57" t="b" cm="1">
+        <f t="array" ref="J57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(J$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(J57)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" t="b" cm="1">
+        <f t="array" ref="K57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(K$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(K57)</f>
+        <v>1</v>
+      </c>
+      <c r="L57" t="b" cm="1">
+        <f t="array" ref="L57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(L$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(L57)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" t="b" cm="1">
+        <f t="array" ref="M57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(M$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(M57)</f>
+        <v>1</v>
+      </c>
+      <c r="N57" t="b" cm="1">
+        <f t="array" ref="N57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(N$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(N57)</f>
+        <v>0</v>
+      </c>
+      <c r="O57" t="b" cm="1">
+        <f t="array" ref="O57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(O$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(O57)</f>
+        <v>1</v>
+      </c>
+      <c r="P57" t="b" cm="1">
+        <f t="array" ref="P57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(P$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(P57)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" t="b" cm="1">
+        <f t="array" ref="Q57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Q$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Q57)</f>
+        <v>1</v>
+      </c>
+      <c r="R57" t="b" cm="1">
+        <f t="array" ref="R57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(R$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(R57)</f>
+        <v>0</v>
+      </c>
+      <c r="S57" t="b" cm="1">
+        <f t="array" ref="S57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(S$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(S57)</f>
+        <v>1</v>
+      </c>
+      <c r="T57" t="b" cm="1">
+        <f t="array" ref="T57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(T$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(T57)</f>
+        <v>0</v>
+      </c>
+      <c r="U57" t="b" cm="1">
+        <f t="array" ref="U57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(U$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(U57)</f>
+        <v>1</v>
+      </c>
+      <c r="V57" t="b" cm="1">
+        <f t="array" ref="V57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(V$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(V57)</f>
+        <v>0</v>
+      </c>
+      <c r="W57" t="b" cm="1">
+        <f t="array" ref="W57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(W$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(W57)</f>
+        <v>1</v>
+      </c>
+      <c r="X57" t="b" cm="1">
+        <f t="array" ref="X57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(X$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(X57)</f>
+        <v>0</v>
+      </c>
+      <c r="Y57" t="b" cm="1">
+        <f t="array" ref="Y57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Y$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Y57)</f>
+        <v>1</v>
+      </c>
+      <c r="Z57" t="b" cm="1">
+        <f t="array" ref="Z57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Z$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Z57)</f>
+        <v>0</v>
+      </c>
+      <c r="AA57" t="b" cm="1">
+        <f t="array" ref="AA57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AA57)</f>
+        <v>1</v>
+      </c>
+      <c r="AB57" t="b" cm="1">
+        <f t="array" ref="AB57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AB$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AB57)</f>
+        <v>0</v>
+      </c>
+      <c r="AC57" t="b" cm="1">
+        <f t="array" ref="AC57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AC$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AC57)</f>
+        <v>1</v>
+      </c>
+      <c r="AD57" t="b" cm="1">
+        <f t="array" ref="AD57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AD$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AD57)</f>
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b" cm="1">
+        <f t="array" ref="AE57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AE$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AE57)</f>
+        <v>1</v>
+      </c>
+      <c r="AF57" t="b" cm="1">
+        <f t="array" ref="AF57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AF$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AF57)</f>
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b" cm="1">
+        <f t="array" ref="AG57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AG$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AG57)</f>
+        <v>1</v>
+      </c>
+      <c r="AH57" t="b" cm="1">
+        <f t="array" ref="AH57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AH$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AH57)</f>
+        <v>0</v>
+      </c>
+      <c r="AI57" t="b" cm="1">
+        <f t="array" ref="AI57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AI$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AI57)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ57" t="b" cm="1">
+        <f t="array" ref="AJ57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AJ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AJ57)</f>
+        <v>0</v>
+      </c>
+      <c r="AK57" t="b" cm="1">
+        <f t="array" ref="AK57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AK$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AK57)</f>
+        <v>1</v>
+      </c>
+      <c r="AL57" t="b" cm="1">
+        <f t="array" ref="AL57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AL$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AL57)</f>
+        <v>0</v>
+      </c>
+      <c r="AM57" t="b" cm="1">
+        <f t="array" ref="AM57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AM$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AM57)</f>
+        <v>1</v>
+      </c>
+      <c r="AN57" t="b" cm="1">
+        <f t="array" ref="AN57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AN$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AN57)</f>
+        <v>0</v>
+      </c>
+      <c r="AO57" t="b" cm="1">
+        <f t="array" ref="AO57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AO$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AO57)</f>
+        <v>1</v>
+      </c>
+      <c r="AP57" t="b" cm="1">
+        <f t="array" ref="AP57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AP$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AP57)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ57" t="b" cm="1">
+        <f t="array" ref="AQ57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AQ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AQ57)</f>
+        <v>1</v>
+      </c>
+      <c r="AR57" t="b" cm="1">
+        <f t="array" ref="AR57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AR$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AR57)</f>
+        <v>0</v>
+      </c>
+      <c r="AS57" t="b" cm="1">
+        <f t="array" ref="AS57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AS$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AS57)</f>
+        <v>1</v>
+      </c>
+      <c r="AT57" t="b" cm="1">
+        <f t="array" ref="AT57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AT$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AT57)</f>
+        <v>0</v>
+      </c>
+      <c r="AU57" t="b" cm="1">
+        <f t="array" ref="AU57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AU$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AU57)</f>
+        <v>0</v>
+      </c>
+      <c r="AV57" t="b" cm="1">
+        <f t="array" ref="AV57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AV$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AV57)</f>
+        <v>0</v>
+      </c>
+      <c r="AW57" t="b" cm="1">
+        <f t="array" ref="AW57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AW$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AW57)</f>
+        <v>0</v>
+      </c>
+      <c r="AX57" t="b" cm="1">
+        <f t="array" ref="AX57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AX$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AX57)</f>
+        <v>0</v>
+      </c>
+      <c r="AY57" t="b" cm="1">
+        <f t="array" ref="AY57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AY$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AY57)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ57" t="b" cm="1">
+        <f t="array" ref="AZ57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AZ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AZ57)</f>
+        <v>0</v>
+      </c>
+      <c r="BA57" t="b" cm="1">
+        <f t="array" ref="BA57">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(BA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(BA57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A58" t="b" cm="1">
+        <f t="array" ref="A58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(A$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(A58)</f>
+        <v>1</v>
+      </c>
+      <c r="B58" t="b" cm="1">
+        <f t="array" ref="B58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(B$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(B58)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" t="b" cm="1">
+        <f t="array" ref="C58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(C$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(C58)</f>
+        <v>1</v>
+      </c>
+      <c r="D58" t="b" cm="1">
+        <f t="array" ref="D58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(D$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(D58)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" t="b" cm="1">
+        <f t="array" ref="E58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(E$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(E58)</f>
+        <v>1</v>
+      </c>
+      <c r="F58" t="b" cm="1">
+        <f t="array" ref="F58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(F$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(F58)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" t="b" cm="1">
+        <f t="array" ref="G58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(G$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(G58)</f>
+        <v>1</v>
+      </c>
+      <c r="H58" t="b" cm="1">
+        <f t="array" ref="H58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(H$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(H58)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" t="b" cm="1">
+        <f t="array" ref="I58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(I$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(I58)</f>
+        <v>1</v>
+      </c>
+      <c r="J58" t="b" cm="1">
+        <f t="array" ref="J58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(J$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(J58)</f>
+        <v>0</v>
+      </c>
+      <c r="K58" t="b" cm="1">
+        <f t="array" ref="K58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(K$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(K58)</f>
+        <v>1</v>
+      </c>
+      <c r="L58" t="b" cm="1">
+        <f t="array" ref="L58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(L$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(L58)</f>
+        <v>0</v>
+      </c>
+      <c r="M58" t="b" cm="1">
+        <f t="array" ref="M58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(M$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(M58)</f>
+        <v>1</v>
+      </c>
+      <c r="N58" t="b" cm="1">
+        <f t="array" ref="N58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(N$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(N58)</f>
+        <v>0</v>
+      </c>
+      <c r="O58" t="b" cm="1">
+        <f t="array" ref="O58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(O$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(O58)</f>
+        <v>1</v>
+      </c>
+      <c r="P58" t="b" cm="1">
+        <f t="array" ref="P58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(P$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(P58)</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" t="b" cm="1">
+        <f t="array" ref="Q58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Q$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Q58)</f>
+        <v>1</v>
+      </c>
+      <c r="R58" t="b" cm="1">
+        <f t="array" ref="R58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(R$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(R58)</f>
+        <v>0</v>
+      </c>
+      <c r="S58" t="b" cm="1">
+        <f t="array" ref="S58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(S$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(S58)</f>
+        <v>1</v>
+      </c>
+      <c r="T58" t="b" cm="1">
+        <f t="array" ref="T58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(T$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(T58)</f>
+        <v>0</v>
+      </c>
+      <c r="U58" t="b" cm="1">
+        <f t="array" ref="U58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(U$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(U58)</f>
+        <v>1</v>
+      </c>
+      <c r="V58" t="b" cm="1">
+        <f t="array" ref="V58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(V$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(V58)</f>
+        <v>0</v>
+      </c>
+      <c r="W58" t="b" cm="1">
+        <f t="array" ref="W58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(W$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(W58)</f>
+        <v>1</v>
+      </c>
+      <c r="X58" t="b" cm="1">
+        <f t="array" ref="X58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(X$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(X58)</f>
+        <v>0</v>
+      </c>
+      <c r="Y58" t="b" cm="1">
+        <f t="array" ref="Y58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Y$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Y58)</f>
+        <v>1</v>
+      </c>
+      <c r="Z58" t="b" cm="1">
+        <f t="array" ref="Z58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Z$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Z58)</f>
+        <v>0</v>
+      </c>
+      <c r="AA58" t="b" cm="1">
+        <f t="array" ref="AA58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AA58)</f>
+        <v>1</v>
+      </c>
+      <c r="AB58" t="b" cm="1">
+        <f t="array" ref="AB58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AB$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AB58)</f>
+        <v>0</v>
+      </c>
+      <c r="AC58" t="b" cm="1">
+        <f t="array" ref="AC58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AC$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AC58)</f>
+        <v>1</v>
+      </c>
+      <c r="AD58" t="b" cm="1">
+        <f t="array" ref="AD58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AD$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AD58)</f>
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b" cm="1">
+        <f t="array" ref="AE58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AE$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AE58)</f>
+        <v>1</v>
+      </c>
+      <c r="AF58" t="b" cm="1">
+        <f t="array" ref="AF58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AF$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AF58)</f>
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b" cm="1">
+        <f t="array" ref="AG58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AG$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AG58)</f>
+        <v>1</v>
+      </c>
+      <c r="AH58" t="b" cm="1">
+        <f t="array" ref="AH58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AH$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AH58)</f>
+        <v>0</v>
+      </c>
+      <c r="AI58" t="b" cm="1">
+        <f t="array" ref="AI58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AI$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AI58)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ58" t="b" cm="1">
+        <f t="array" ref="AJ58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AJ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AJ58)</f>
+        <v>0</v>
+      </c>
+      <c r="AK58" t="b" cm="1">
+        <f t="array" ref="AK58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AK$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AK58)</f>
+        <v>1</v>
+      </c>
+      <c r="AL58" t="b" cm="1">
+        <f t="array" ref="AL58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AL$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AL58)</f>
+        <v>0</v>
+      </c>
+      <c r="AM58" t="b" cm="1">
+        <f t="array" ref="AM58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AM$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AM58)</f>
+        <v>1</v>
+      </c>
+      <c r="AN58" t="b" cm="1">
+        <f t="array" ref="AN58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AN$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AN58)</f>
+        <v>0</v>
+      </c>
+      <c r="AO58" t="b" cm="1">
+        <f t="array" ref="AO58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AO$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AO58)</f>
+        <v>1</v>
+      </c>
+      <c r="AP58" t="b" cm="1">
+        <f t="array" ref="AP58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AP$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AP58)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ58" t="b" cm="1">
+        <f t="array" ref="AQ58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AQ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AQ58)</f>
+        <v>1</v>
+      </c>
+      <c r="AR58" t="b" cm="1">
+        <f t="array" ref="AR58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AR$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AR58)</f>
+        <v>0</v>
+      </c>
+      <c r="AS58" t="b" cm="1">
+        <f t="array" ref="AS58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AS$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AS58)</f>
+        <v>1</v>
+      </c>
+      <c r="AT58" t="b" cm="1">
+        <f t="array" ref="AT58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AT$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AT58)</f>
+        <v>0</v>
+      </c>
+      <c r="AU58" t="b" cm="1">
+        <f t="array" ref="AU58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AU$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AU58)</f>
+        <v>0</v>
+      </c>
+      <c r="AV58" t="b" cm="1">
+        <f t="array" ref="AV58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AV$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AV58)</f>
+        <v>0</v>
+      </c>
+      <c r="AW58" t="b" cm="1">
+        <f t="array" ref="AW58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AW$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AW58)</f>
+        <v>0</v>
+      </c>
+      <c r="AX58" t="b" cm="1">
+        <f t="array" ref="AX58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AX$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AX58)</f>
+        <v>0</v>
+      </c>
+      <c r="AY58" t="b" cm="1">
+        <f t="array" ref="AY58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AY$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AY58)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ58" t="b" cm="1">
+        <f t="array" ref="AZ58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AZ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AZ58)</f>
+        <v>0</v>
+      </c>
+      <c r="BA58" t="b" cm="1">
+        <f t="array" ref="BA58">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(BA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(BA58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A59" t="b" cm="1">
+        <f t="array" ref="A59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(A$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(A59)</f>
+        <v>1</v>
+      </c>
+      <c r="B59" t="b" cm="1">
+        <f t="array" ref="B59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(B$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(B59)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" t="b" cm="1">
+        <f t="array" ref="C59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(C$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(C59)</f>
+        <v>1</v>
+      </c>
+      <c r="D59" t="b" cm="1">
+        <f t="array" ref="D59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(D$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" t="b" cm="1">
+        <f t="array" ref="E59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(E$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(E59)</f>
+        <v>1</v>
+      </c>
+      <c r="F59" t="b" cm="1">
+        <f t="array" ref="F59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(F$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(F59)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" t="b" cm="1">
+        <f t="array" ref="G59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(G$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(G59)</f>
+        <v>1</v>
+      </c>
+      <c r="H59" t="b" cm="1">
+        <f t="array" ref="H59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(H$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(H59)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" t="b" cm="1">
+        <f t="array" ref="I59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(I$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(I59)</f>
+        <v>1</v>
+      </c>
+      <c r="J59" t="b" cm="1">
+        <f t="array" ref="J59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(J$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(J59)</f>
+        <v>0</v>
+      </c>
+      <c r="K59" t="b" cm="1">
+        <f t="array" ref="K59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(K$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(K59)</f>
+        <v>1</v>
+      </c>
+      <c r="L59" t="b" cm="1">
+        <f t="array" ref="L59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(L$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(L59)</f>
+        <v>0</v>
+      </c>
+      <c r="M59" t="b" cm="1">
+        <f t="array" ref="M59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(M$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(M59)</f>
+        <v>1</v>
+      </c>
+      <c r="N59" t="b" cm="1">
+        <f t="array" ref="N59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(N$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(N59)</f>
+        <v>0</v>
+      </c>
+      <c r="O59" t="b" cm="1">
+        <f t="array" ref="O59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(O$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(O59)</f>
+        <v>1</v>
+      </c>
+      <c r="P59" t="b" cm="1">
+        <f t="array" ref="P59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(P$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(P59)</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" t="b" cm="1">
+        <f t="array" ref="Q59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Q$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Q59)</f>
+        <v>1</v>
+      </c>
+      <c r="R59" t="b" cm="1">
+        <f t="array" ref="R59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(R$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(R59)</f>
+        <v>0</v>
+      </c>
+      <c r="S59" t="b" cm="1">
+        <f t="array" ref="S59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(S$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(S59)</f>
+        <v>1</v>
+      </c>
+      <c r="T59" t="b" cm="1">
+        <f t="array" ref="T59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(T$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(T59)</f>
+        <v>0</v>
+      </c>
+      <c r="U59" t="b" cm="1">
+        <f t="array" ref="U59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(U$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(U59)</f>
+        <v>1</v>
+      </c>
+      <c r="V59" t="b" cm="1">
+        <f t="array" ref="V59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(V$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(V59)</f>
+        <v>0</v>
+      </c>
+      <c r="W59" t="b" cm="1">
+        <f t="array" ref="W59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(W$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(W59)</f>
+        <v>1</v>
+      </c>
+      <c r="X59" t="b" cm="1">
+        <f t="array" ref="X59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(X$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(X59)</f>
+        <v>0</v>
+      </c>
+      <c r="Y59" t="b" cm="1">
+        <f t="array" ref="Y59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Y$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Y59)</f>
+        <v>1</v>
+      </c>
+      <c r="Z59" t="b" cm="1">
+        <f t="array" ref="Z59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Z$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Z59)</f>
+        <v>0</v>
+      </c>
+      <c r="AA59" t="b" cm="1">
+        <f t="array" ref="AA59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AA59)</f>
+        <v>1</v>
+      </c>
+      <c r="AB59" t="b" cm="1">
+        <f t="array" ref="AB59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AB$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AB59)</f>
+        <v>0</v>
+      </c>
+      <c r="AC59" t="b" cm="1">
+        <f t="array" ref="AC59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AC$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AC59)</f>
+        <v>1</v>
+      </c>
+      <c r="AD59" t="b" cm="1">
+        <f t="array" ref="AD59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AD$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AD59)</f>
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b" cm="1">
+        <f t="array" ref="AE59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AE$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AE59)</f>
+        <v>1</v>
+      </c>
+      <c r="AF59" t="b" cm="1">
+        <f t="array" ref="AF59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AF$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AF59)</f>
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b" cm="1">
+        <f t="array" ref="AG59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AG$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AG59)</f>
+        <v>1</v>
+      </c>
+      <c r="AH59" t="b" cm="1">
+        <f t="array" ref="AH59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AH$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AH59)</f>
+        <v>0</v>
+      </c>
+      <c r="AI59" t="b" cm="1">
+        <f t="array" ref="AI59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AI$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AI59)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ59" t="b" cm="1">
+        <f t="array" ref="AJ59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AJ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AJ59)</f>
+        <v>0</v>
+      </c>
+      <c r="AK59" t="b" cm="1">
+        <f t="array" ref="AK59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AK$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AK59)</f>
+        <v>1</v>
+      </c>
+      <c r="AL59" t="b" cm="1">
+        <f t="array" ref="AL59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AL$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AL59)</f>
+        <v>0</v>
+      </c>
+      <c r="AM59" t="b" cm="1">
+        <f t="array" ref="AM59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AM$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AM59)</f>
+        <v>1</v>
+      </c>
+      <c r="AN59" t="b" cm="1">
+        <f t="array" ref="AN59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AN$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AN59)</f>
+        <v>0</v>
+      </c>
+      <c r="AO59" t="b" cm="1">
+        <f t="array" ref="AO59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AO$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AO59)</f>
+        <v>1</v>
+      </c>
+      <c r="AP59" t="b" cm="1">
+        <f t="array" ref="AP59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AP$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AP59)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ59" t="b" cm="1">
+        <f t="array" ref="AQ59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AQ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AQ59)</f>
+        <v>1</v>
+      </c>
+      <c r="AR59" t="b" cm="1">
+        <f t="array" ref="AR59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AR$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AR59)</f>
+        <v>0</v>
+      </c>
+      <c r="AS59" t="b" cm="1">
+        <f t="array" ref="AS59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AS$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AS59)</f>
+        <v>1</v>
+      </c>
+      <c r="AT59" t="b" cm="1">
+        <f t="array" ref="AT59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AT$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AT59)</f>
+        <v>0</v>
+      </c>
+      <c r="AU59" t="b" cm="1">
+        <f t="array" ref="AU59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AU$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AU59)</f>
+        <v>0</v>
+      </c>
+      <c r="AV59" t="b" cm="1">
+        <f t="array" ref="AV59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AV$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AV59)</f>
+        <v>0</v>
+      </c>
+      <c r="AW59" t="b" cm="1">
+        <f t="array" ref="AW59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AW$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AW59)</f>
+        <v>0</v>
+      </c>
+      <c r="AX59" t="b" cm="1">
+        <f t="array" ref="AX59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AX$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AX59)</f>
+        <v>0</v>
+      </c>
+      <c r="AY59" t="b" cm="1">
+        <f t="array" ref="AY59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AY$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AY59)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ59" t="b" cm="1">
+        <f t="array" ref="AZ59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AZ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AZ59)</f>
+        <v>0</v>
+      </c>
+      <c r="BA59" t="b" cm="1">
+        <f t="array" ref="BA59">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(BA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(BA59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A60" t="b" cm="1">
+        <f t="array" ref="A60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(A$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(A60)</f>
+        <v>1</v>
+      </c>
+      <c r="B60" t="b" cm="1">
+        <f t="array" ref="B60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(B$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(B60)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" t="b" cm="1">
+        <f t="array" ref="C60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(C$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(C60)</f>
+        <v>1</v>
+      </c>
+      <c r="D60" t="b" cm="1">
+        <f t="array" ref="D60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(D$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(D60)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" t="b" cm="1">
+        <f t="array" ref="E60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(E$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(E60)</f>
+        <v>1</v>
+      </c>
+      <c r="F60" t="b" cm="1">
+        <f t="array" ref="F60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(F$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(F60)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" t="b" cm="1">
+        <f t="array" ref="G60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(G$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(G60)</f>
+        <v>1</v>
+      </c>
+      <c r="H60" t="b" cm="1">
+        <f t="array" ref="H60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(H$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(H60)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" t="b" cm="1">
+        <f t="array" ref="I60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(I$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(I60)</f>
+        <v>1</v>
+      </c>
+      <c r="J60" t="b" cm="1">
+        <f t="array" ref="J60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(J$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(J60)</f>
+        <v>0</v>
+      </c>
+      <c r="K60" t="b" cm="1">
+        <f t="array" ref="K60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(K$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(K60)</f>
+        <v>1</v>
+      </c>
+      <c r="L60" t="b" cm="1">
+        <f t="array" ref="L60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(L$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(L60)</f>
+        <v>0</v>
+      </c>
+      <c r="M60" t="b" cm="1">
+        <f t="array" ref="M60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(M$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(M60)</f>
+        <v>1</v>
+      </c>
+      <c r="N60" t="b" cm="1">
+        <f t="array" ref="N60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(N$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(N60)</f>
+        <v>0</v>
+      </c>
+      <c r="O60" t="b" cm="1">
+        <f t="array" ref="O60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(O$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(O60)</f>
+        <v>1</v>
+      </c>
+      <c r="P60" t="b" cm="1">
+        <f t="array" ref="P60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(P$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(P60)</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" t="b" cm="1">
+        <f t="array" ref="Q60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Q$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Q60)</f>
+        <v>1</v>
+      </c>
+      <c r="R60" t="b" cm="1">
+        <f t="array" ref="R60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(R$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(R60)</f>
+        <v>0</v>
+      </c>
+      <c r="S60" t="b" cm="1">
+        <f t="array" ref="S60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(S$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(S60)</f>
+        <v>1</v>
+      </c>
+      <c r="T60" t="b" cm="1">
+        <f t="array" ref="T60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(T$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(T60)</f>
+        <v>0</v>
+      </c>
+      <c r="U60" t="b" cm="1">
+        <f t="array" ref="U60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(U$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(U60)</f>
+        <v>1</v>
+      </c>
+      <c r="V60" t="b" cm="1">
+        <f t="array" ref="V60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(V$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(V60)</f>
+        <v>0</v>
+      </c>
+      <c r="W60" t="b" cm="1">
+        <f t="array" ref="W60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(W$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(W60)</f>
+        <v>1</v>
+      </c>
+      <c r="X60" t="b" cm="1">
+        <f t="array" ref="X60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(X$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(X60)</f>
+        <v>0</v>
+      </c>
+      <c r="Y60" t="b" cm="1">
+        <f t="array" ref="Y60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Y$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Y60)</f>
+        <v>1</v>
+      </c>
+      <c r="Z60" t="b" cm="1">
+        <f t="array" ref="Z60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Z$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Z60)</f>
+        <v>0</v>
+      </c>
+      <c r="AA60" t="b" cm="1">
+        <f t="array" ref="AA60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AA60)</f>
+        <v>1</v>
+      </c>
+      <c r="AB60" t="b" cm="1">
+        <f t="array" ref="AB60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AB$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AB60)</f>
+        <v>0</v>
+      </c>
+      <c r="AC60" t="b" cm="1">
+        <f t="array" ref="AC60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AC$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AC60)</f>
+        <v>1</v>
+      </c>
+      <c r="AD60" t="b" cm="1">
+        <f t="array" ref="AD60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AD$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AD60)</f>
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b" cm="1">
+        <f t="array" ref="AE60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AE$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AE60)</f>
+        <v>1</v>
+      </c>
+      <c r="AF60" t="b" cm="1">
+        <f t="array" ref="AF60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AF$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AF60)</f>
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b" cm="1">
+        <f t="array" ref="AG60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AG$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AG60)</f>
+        <v>1</v>
+      </c>
+      <c r="AH60" t="b" cm="1">
+        <f t="array" ref="AH60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AH$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AH60)</f>
+        <v>0</v>
+      </c>
+      <c r="AI60" t="b" cm="1">
+        <f t="array" ref="AI60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AI$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AI60)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ60" t="b" cm="1">
+        <f t="array" ref="AJ60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AJ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AJ60)</f>
+        <v>0</v>
+      </c>
+      <c r="AK60" t="b" cm="1">
+        <f t="array" ref="AK60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AK$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AK60)</f>
+        <v>1</v>
+      </c>
+      <c r="AL60" t="b" cm="1">
+        <f t="array" ref="AL60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AL$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AL60)</f>
+        <v>0</v>
+      </c>
+      <c r="AM60" t="b" cm="1">
+        <f t="array" ref="AM60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AM$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AM60)</f>
+        <v>1</v>
+      </c>
+      <c r="AN60" t="b" cm="1">
+        <f t="array" ref="AN60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AN$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AN60)</f>
+        <v>0</v>
+      </c>
+      <c r="AO60" t="b" cm="1">
+        <f t="array" ref="AO60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AO$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AO60)</f>
+        <v>1</v>
+      </c>
+      <c r="AP60" t="b" cm="1">
+        <f t="array" ref="AP60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AP$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AP60)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ60" t="b" cm="1">
+        <f t="array" ref="AQ60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AQ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AQ60)</f>
+        <v>1</v>
+      </c>
+      <c r="AR60" t="b" cm="1">
+        <f t="array" ref="AR60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AR$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AR60)</f>
+        <v>0</v>
+      </c>
+      <c r="AS60" t="b" cm="1">
+        <f t="array" ref="AS60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AS$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AS60)</f>
+        <v>1</v>
+      </c>
+      <c r="AT60" t="b" cm="1">
+        <f t="array" ref="AT60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AT$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AT60)</f>
+        <v>0</v>
+      </c>
+      <c r="AU60" t="b" cm="1">
+        <f t="array" ref="AU60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AU$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AU60)</f>
+        <v>0</v>
+      </c>
+      <c r="AV60" t="b" cm="1">
+        <f t="array" ref="AV60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AV$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AV60)</f>
+        <v>0</v>
+      </c>
+      <c r="AW60" t="b" cm="1">
+        <f t="array" ref="AW60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AW$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AW60)</f>
+        <v>0</v>
+      </c>
+      <c r="AX60" t="b" cm="1">
+        <f t="array" ref="AX60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AX$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AX60)</f>
+        <v>0</v>
+      </c>
+      <c r="AY60" t="b" cm="1">
+        <f t="array" ref="AY60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AY$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AY60)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ60" t="b" cm="1">
+        <f t="array" ref="AZ60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AZ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AZ60)</f>
+        <v>0</v>
+      </c>
+      <c r="BA60" t="b" cm="1">
+        <f t="array" ref="BA60">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(BA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(BA60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A61" t="b" cm="1">
+        <f t="array" ref="A61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(A$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(A61)</f>
+        <v>1</v>
+      </c>
+      <c r="B61" t="b" cm="1">
+        <f t="array" ref="B61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(B$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(B61)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" t="b" cm="1">
+        <f t="array" ref="C61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(C$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(C61)</f>
+        <v>1</v>
+      </c>
+      <c r="D61" t="b" cm="1">
+        <f t="array" ref="D61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(D$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(D61)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" t="b" cm="1">
+        <f t="array" ref="E61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(E$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(E61)</f>
+        <v>1</v>
+      </c>
+      <c r="F61" t="b" cm="1">
+        <f t="array" ref="F61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(F$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(F61)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" t="b" cm="1">
+        <f t="array" ref="G61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(G$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(G61)</f>
+        <v>1</v>
+      </c>
+      <c r="H61" t="b" cm="1">
+        <f t="array" ref="H61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(H$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(H61)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" t="b" cm="1">
+        <f t="array" ref="I61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(I$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(I61)</f>
+        <v>1</v>
+      </c>
+      <c r="J61" t="b" cm="1">
+        <f t="array" ref="J61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(J$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(J61)</f>
+        <v>0</v>
+      </c>
+      <c r="K61" t="b" cm="1">
+        <f t="array" ref="K61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(K$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(K61)</f>
+        <v>1</v>
+      </c>
+      <c r="L61" t="b" cm="1">
+        <f t="array" ref="L61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(L$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(L61)</f>
+        <v>0</v>
+      </c>
+      <c r="M61" t="b" cm="1">
+        <f t="array" ref="M61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(M$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(M61)</f>
+        <v>1</v>
+      </c>
+      <c r="N61" t="b" cm="1">
+        <f t="array" ref="N61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(N$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(N61)</f>
+        <v>0</v>
+      </c>
+      <c r="O61" t="b" cm="1">
+        <f t="array" ref="O61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(O$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(O61)</f>
+        <v>1</v>
+      </c>
+      <c r="P61" t="b" cm="1">
+        <f t="array" ref="P61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(P$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(P61)</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" t="b" cm="1">
+        <f t="array" ref="Q61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Q$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Q61)</f>
+        <v>1</v>
+      </c>
+      <c r="R61" t="b" cm="1">
+        <f t="array" ref="R61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(R$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(R61)</f>
+        <v>0</v>
+      </c>
+      <c r="S61" t="b" cm="1">
+        <f t="array" ref="S61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(S$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(S61)</f>
+        <v>1</v>
+      </c>
+      <c r="T61" t="b" cm="1">
+        <f t="array" ref="T61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(T$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(T61)</f>
+        <v>0</v>
+      </c>
+      <c r="U61" t="b" cm="1">
+        <f t="array" ref="U61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(U$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(U61)</f>
+        <v>1</v>
+      </c>
+      <c r="V61" t="b" cm="1">
+        <f t="array" ref="V61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(V$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(V61)</f>
+        <v>0</v>
+      </c>
+      <c r="W61" t="b" cm="1">
+        <f t="array" ref="W61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(W$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(W61)</f>
+        <v>1</v>
+      </c>
+      <c r="X61" t="b" cm="1">
+        <f t="array" ref="X61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(X$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(X61)</f>
+        <v>0</v>
+      </c>
+      <c r="Y61" t="b" cm="1">
+        <f t="array" ref="Y61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Y$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Y61)</f>
+        <v>1</v>
+      </c>
+      <c r="Z61" t="b" cm="1">
+        <f t="array" ref="Z61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Z$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Z61)</f>
+        <v>0</v>
+      </c>
+      <c r="AA61" t="b" cm="1">
+        <f t="array" ref="AA61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AA61)</f>
+        <v>1</v>
+      </c>
+      <c r="AB61" t="b" cm="1">
+        <f t="array" ref="AB61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AB$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AB61)</f>
+        <v>0</v>
+      </c>
+      <c r="AC61" t="b" cm="1">
+        <f t="array" ref="AC61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AC$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AC61)</f>
+        <v>1</v>
+      </c>
+      <c r="AD61" t="b" cm="1">
+        <f t="array" ref="AD61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AD$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AD61)</f>
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b" cm="1">
+        <f t="array" ref="AE61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AE$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AE61)</f>
+        <v>1</v>
+      </c>
+      <c r="AF61" t="b" cm="1">
+        <f t="array" ref="AF61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AF$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AF61)</f>
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b" cm="1">
+        <f t="array" ref="AG61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AG$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AG61)</f>
+        <v>1</v>
+      </c>
+      <c r="AH61" t="b" cm="1">
+        <f t="array" ref="AH61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AH$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AH61)</f>
+        <v>0</v>
+      </c>
+      <c r="AI61" t="b" cm="1">
+        <f t="array" ref="AI61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AI$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AI61)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ61" t="b" cm="1">
+        <f t="array" ref="AJ61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AJ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AJ61)</f>
+        <v>0</v>
+      </c>
+      <c r="AK61" t="b" cm="1">
+        <f t="array" ref="AK61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AK$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AK61)</f>
+        <v>1</v>
+      </c>
+      <c r="AL61" t="b" cm="1">
+        <f t="array" ref="AL61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AL$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AL61)</f>
+        <v>0</v>
+      </c>
+      <c r="AM61" t="b" cm="1">
+        <f t="array" ref="AM61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AM$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AM61)</f>
+        <v>1</v>
+      </c>
+      <c r="AN61" t="b" cm="1">
+        <f t="array" ref="AN61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AN$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AN61)</f>
+        <v>0</v>
+      </c>
+      <c r="AO61" t="b" cm="1">
+        <f t="array" ref="AO61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AO$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AO61)</f>
+        <v>1</v>
+      </c>
+      <c r="AP61" t="b" cm="1">
+        <f t="array" ref="AP61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AP$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AP61)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ61" t="b" cm="1">
+        <f t="array" ref="AQ61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AQ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AQ61)</f>
+        <v>1</v>
+      </c>
+      <c r="AR61" t="b" cm="1">
+        <f t="array" ref="AR61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AR$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AR61)</f>
+        <v>0</v>
+      </c>
+      <c r="AS61" t="b" cm="1">
+        <f t="array" ref="AS61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AS$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AS61)</f>
+        <v>1</v>
+      </c>
+      <c r="AT61" t="b" cm="1">
+        <f t="array" ref="AT61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AT$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AT61)</f>
+        <v>0</v>
+      </c>
+      <c r="AU61" t="b" cm="1">
+        <f t="array" ref="AU61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AU$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AU61)</f>
+        <v>0</v>
+      </c>
+      <c r="AV61" t="b" cm="1">
+        <f t="array" ref="AV61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AV$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AV61)</f>
+        <v>0</v>
+      </c>
+      <c r="AW61" t="b" cm="1">
+        <f t="array" ref="AW61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AW$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AW61)</f>
+        <v>0</v>
+      </c>
+      <c r="AX61" t="b" cm="1">
+        <f t="array" ref="AX61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AX$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AX61)</f>
+        <v>0</v>
+      </c>
+      <c r="AY61" t="b" cm="1">
+        <f t="array" ref="AY61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AY$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AY61)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ61" t="b" cm="1">
+        <f t="array" ref="AZ61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AZ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AZ61)</f>
+        <v>0</v>
+      </c>
+      <c r="BA61" t="b" cm="1">
+        <f t="array" ref="BA61">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(BA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(BA61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A62" t="b" cm="1">
+        <f t="array" ref="A62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(A$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(A62)</f>
+        <v>1</v>
+      </c>
+      <c r="B62" t="b" cm="1">
+        <f t="array" ref="B62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(B$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(B62)</f>
+        <v>0</v>
+      </c>
+      <c r="C62" t="b" cm="1">
+        <f t="array" ref="C62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(C$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(C62)</f>
+        <v>1</v>
+      </c>
+      <c r="D62" t="b" cm="1">
+        <f t="array" ref="D62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(D$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(D62)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" t="b" cm="1">
+        <f t="array" ref="E62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(E$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(E62)</f>
+        <v>1</v>
+      </c>
+      <c r="F62" t="b" cm="1">
+        <f t="array" ref="F62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(F$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(F62)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" t="b" cm="1">
+        <f t="array" ref="G62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(G$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(G62)</f>
+        <v>1</v>
+      </c>
+      <c r="H62" t="b" cm="1">
+        <f t="array" ref="H62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(H$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(H62)</f>
+        <v>0</v>
+      </c>
+      <c r="I62" t="b" cm="1">
+        <f t="array" ref="I62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(I$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(I62)</f>
+        <v>1</v>
+      </c>
+      <c r="J62" t="b" cm="1">
+        <f t="array" ref="J62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(J$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(J62)</f>
+        <v>0</v>
+      </c>
+      <c r="K62" t="b" cm="1">
+        <f t="array" ref="K62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(K$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(K62)</f>
+        <v>1</v>
+      </c>
+      <c r="L62" t="b" cm="1">
+        <f t="array" ref="L62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(L$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(L62)</f>
+        <v>0</v>
+      </c>
+      <c r="M62" t="b" cm="1">
+        <f t="array" ref="M62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(M$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(M62)</f>
+        <v>1</v>
+      </c>
+      <c r="N62" t="b" cm="1">
+        <f t="array" ref="N62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(N$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(N62)</f>
+        <v>0</v>
+      </c>
+      <c r="O62" t="b" cm="1">
+        <f t="array" ref="O62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(O$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(O62)</f>
+        <v>1</v>
+      </c>
+      <c r="P62" t="b" cm="1">
+        <f t="array" ref="P62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(P$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(P62)</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" t="b" cm="1">
+        <f t="array" ref="Q62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Q$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Q62)</f>
+        <v>1</v>
+      </c>
+      <c r="R62" t="b" cm="1">
+        <f t="array" ref="R62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(R$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(R62)</f>
+        <v>0</v>
+      </c>
+      <c r="S62" t="b" cm="1">
+        <f t="array" ref="S62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(S$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(S62)</f>
+        <v>1</v>
+      </c>
+      <c r="T62" t="b" cm="1">
+        <f t="array" ref="T62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(T$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(T62)</f>
+        <v>0</v>
+      </c>
+      <c r="U62" t="b" cm="1">
+        <f t="array" ref="U62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(U$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(U62)</f>
+        <v>1</v>
+      </c>
+      <c r="V62" t="b" cm="1">
+        <f t="array" ref="V62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(V$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(V62)</f>
+        <v>0</v>
+      </c>
+      <c r="W62" t="b" cm="1">
+        <f t="array" ref="W62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(W$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(W62)</f>
+        <v>1</v>
+      </c>
+      <c r="X62" t="b" cm="1">
+        <f t="array" ref="X62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(X$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(X62)</f>
+        <v>0</v>
+      </c>
+      <c r="Y62" t="b" cm="1">
+        <f t="array" ref="Y62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Y$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Y62)</f>
+        <v>1</v>
+      </c>
+      <c r="Z62" t="b" cm="1">
+        <f t="array" ref="Z62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(Z$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(Z62)</f>
+        <v>0</v>
+      </c>
+      <c r="AA62" t="b" cm="1">
+        <f t="array" ref="AA62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AA62)</f>
+        <v>1</v>
+      </c>
+      <c r="AB62" t="b" cm="1">
+        <f t="array" ref="AB62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AB$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AB62)</f>
+        <v>0</v>
+      </c>
+      <c r="AC62" t="b" cm="1">
+        <f t="array" ref="AC62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AC$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AC62)</f>
+        <v>1</v>
+      </c>
+      <c r="AD62" t="b" cm="1">
+        <f t="array" ref="AD62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AD$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AD62)</f>
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b" cm="1">
+        <f t="array" ref="AE62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AE$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AE62)</f>
+        <v>1</v>
+      </c>
+      <c r="AF62" t="b" cm="1">
+        <f t="array" ref="AF62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AF$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AF62)</f>
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b" cm="1">
+        <f t="array" ref="AG62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AG$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AG62)</f>
+        <v>1</v>
+      </c>
+      <c r="AH62" t="b" cm="1">
+        <f t="array" ref="AH62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AH$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AH62)</f>
+        <v>0</v>
+      </c>
+      <c r="AI62" t="b" cm="1">
+        <f t="array" ref="AI62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AI$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AI62)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ62" t="b" cm="1">
+        <f t="array" ref="AJ62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AJ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AJ62)</f>
+        <v>0</v>
+      </c>
+      <c r="AK62" t="b" cm="1">
+        <f t="array" ref="AK62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AK$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AK62)</f>
+        <v>1</v>
+      </c>
+      <c r="AL62" t="b" cm="1">
+        <f t="array" ref="AL62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AL$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AL62)</f>
+        <v>0</v>
+      </c>
+      <c r="AM62" t="b" cm="1">
+        <f t="array" ref="AM62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AM$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AM62)</f>
+        <v>1</v>
+      </c>
+      <c r="AN62" t="b" cm="1">
+        <f t="array" ref="AN62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AN$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AN62)</f>
+        <v>0</v>
+      </c>
+      <c r="AO62" t="b" cm="1">
+        <f t="array" ref="AO62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AO$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AO62)</f>
+        <v>1</v>
+      </c>
+      <c r="AP62" t="b" cm="1">
+        <f t="array" ref="AP62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AP$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AP62)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ62" t="b" cm="1">
+        <f t="array" ref="AQ62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AQ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AQ62)</f>
+        <v>1</v>
+      </c>
+      <c r="AR62" t="b" cm="1">
+        <f t="array" ref="AR62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AR$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AR62)</f>
+        <v>0</v>
+      </c>
+      <c r="AS62" t="b" cm="1">
+        <f t="array" ref="AS62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AS$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AS62)</f>
+        <v>1</v>
+      </c>
+      <c r="AT62" t="b" cm="1">
+        <f t="array" ref="AT62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AT$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AT62)</f>
+        <v>0</v>
+      </c>
+      <c r="AU62" t="b" cm="1">
+        <f t="array" ref="AU62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AU$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AU62)</f>
+        <v>0</v>
+      </c>
+      <c r="AV62" t="b" cm="1">
+        <f t="array" ref="AV62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AV$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AV62)</f>
+        <v>0</v>
+      </c>
+      <c r="AW62" t="b" cm="1">
+        <f t="array" ref="AW62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AW$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AW62)</f>
+        <v>0</v>
+      </c>
+      <c r="AX62" t="b" cm="1">
+        <f t="array" ref="AX62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AX$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AX62)</f>
+        <v>0</v>
+      </c>
+      <c r="AY62" t="b" cm="1">
+        <f t="array" ref="AY62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AY$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AY62)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ62" t="b" cm="1">
+        <f t="array" ref="AZ62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(AZ$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(AZ62)</f>
+        <v>0</v>
+      </c>
+      <c r="BA62" t="b" cm="1">
+        <f t="array" ref="BA62">_xlfn.LAMBDA(_xlpm.x,_xlfn.LET(
+        _xlpm.y,OR(ROW(_xlpm.x)=_xlfn.SEQUENCE(26,1,ROW(BA$55),1)),
+        _xlpm.z,OR(COLUMN(_xlpm.x)=_xlfn.SEQUENCE(23,1,1,2)),
+        _xlpm.z)
+)(BA62)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1437,4 +4892,4219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C06D7A7-61D8-4A38-A371-60FC886B4CB9}">
+  <dimension ref="A2:BA29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="53" width="2.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A4" t="str" cm="1">
+        <f t="array" ref="A4:BA29">_xlfn.MAKEARRAY(B2,2*B2+1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(ABS(2*_xlpm.r-_xlpm.c)&lt;2,CHAR(MOD(_xlpm.r-1,26)+65),"")))</f>
+        <v>A</v>
+      </c>
+      <c r="B4" t="str">
+        <v>A</v>
+      </c>
+      <c r="C4" t="str">
+        <v>A</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <v/>
+      </c>
+      <c r="AA4" t="str">
+        <v/>
+      </c>
+      <c r="AB4" t="str">
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <v/>
+      </c>
+      <c r="AF4" t="str">
+        <v/>
+      </c>
+      <c r="AG4" t="str">
+        <v/>
+      </c>
+      <c r="AH4" t="str">
+        <v/>
+      </c>
+      <c r="AI4" t="str">
+        <v/>
+      </c>
+      <c r="AJ4" t="str">
+        <v/>
+      </c>
+      <c r="AK4" t="str">
+        <v/>
+      </c>
+      <c r="AL4" t="str">
+        <v/>
+      </c>
+      <c r="AM4" t="str">
+        <v/>
+      </c>
+      <c r="AN4" t="str">
+        <v/>
+      </c>
+      <c r="AO4" t="str">
+        <v/>
+      </c>
+      <c r="AP4" t="str">
+        <v/>
+      </c>
+      <c r="AQ4" t="str">
+        <v/>
+      </c>
+      <c r="AR4" t="str">
+        <v/>
+      </c>
+      <c r="AS4" t="str">
+        <v/>
+      </c>
+      <c r="AT4" t="str">
+        <v/>
+      </c>
+      <c r="AU4" t="str">
+        <v/>
+      </c>
+      <c r="AV4" t="str">
+        <v/>
+      </c>
+      <c r="AW4" t="str">
+        <v/>
+      </c>
+      <c r="AX4" t="str">
+        <v/>
+      </c>
+      <c r="AY4" t="str">
+        <v/>
+      </c>
+      <c r="AZ4" t="str">
+        <v/>
+      </c>
+      <c r="BA4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v>B</v>
+      </c>
+      <c r="D5" t="str">
+        <v>B</v>
+      </c>
+      <c r="E5" t="str">
+        <v>B</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <v/>
+      </c>
+      <c r="AB5" t="str">
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <v/>
+      </c>
+      <c r="AE5" t="str">
+        <v/>
+      </c>
+      <c r="AF5" t="str">
+        <v/>
+      </c>
+      <c r="AG5" t="str">
+        <v/>
+      </c>
+      <c r="AH5" t="str">
+        <v/>
+      </c>
+      <c r="AI5" t="str">
+        <v/>
+      </c>
+      <c r="AJ5" t="str">
+        <v/>
+      </c>
+      <c r="AK5" t="str">
+        <v/>
+      </c>
+      <c r="AL5" t="str">
+        <v/>
+      </c>
+      <c r="AM5" t="str">
+        <v/>
+      </c>
+      <c r="AN5" t="str">
+        <v/>
+      </c>
+      <c r="AO5" t="str">
+        <v/>
+      </c>
+      <c r="AP5" t="str">
+        <v/>
+      </c>
+      <c r="AQ5" t="str">
+        <v/>
+      </c>
+      <c r="AR5" t="str">
+        <v/>
+      </c>
+      <c r="AS5" t="str">
+        <v/>
+      </c>
+      <c r="AT5" t="str">
+        <v/>
+      </c>
+      <c r="AU5" t="str">
+        <v/>
+      </c>
+      <c r="AV5" t="str">
+        <v/>
+      </c>
+      <c r="AW5" t="str">
+        <v/>
+      </c>
+      <c r="AX5" t="str">
+        <v/>
+      </c>
+      <c r="AY5" t="str">
+        <v/>
+      </c>
+      <c r="AZ5" t="str">
+        <v/>
+      </c>
+      <c r="BA5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>C</v>
+      </c>
+      <c r="F6" t="str">
+        <v>C</v>
+      </c>
+      <c r="G6" t="str">
+        <v>C</v>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <v/>
+      </c>
+      <c r="AC6" t="str">
+        <v/>
+      </c>
+      <c r="AD6" t="str">
+        <v/>
+      </c>
+      <c r="AE6" t="str">
+        <v/>
+      </c>
+      <c r="AF6" t="str">
+        <v/>
+      </c>
+      <c r="AG6" t="str">
+        <v/>
+      </c>
+      <c r="AH6" t="str">
+        <v/>
+      </c>
+      <c r="AI6" t="str">
+        <v/>
+      </c>
+      <c r="AJ6" t="str">
+        <v/>
+      </c>
+      <c r="AK6" t="str">
+        <v/>
+      </c>
+      <c r="AL6" t="str">
+        <v/>
+      </c>
+      <c r="AM6" t="str">
+        <v/>
+      </c>
+      <c r="AN6" t="str">
+        <v/>
+      </c>
+      <c r="AO6" t="str">
+        <v/>
+      </c>
+      <c r="AP6" t="str">
+        <v/>
+      </c>
+      <c r="AQ6" t="str">
+        <v/>
+      </c>
+      <c r="AR6" t="str">
+        <v/>
+      </c>
+      <c r="AS6" t="str">
+        <v/>
+      </c>
+      <c r="AT6" t="str">
+        <v/>
+      </c>
+      <c r="AU6" t="str">
+        <v/>
+      </c>
+      <c r="AV6" t="str">
+        <v/>
+      </c>
+      <c r="AW6" t="str">
+        <v/>
+      </c>
+      <c r="AX6" t="str">
+        <v/>
+      </c>
+      <c r="AY6" t="str">
+        <v/>
+      </c>
+      <c r="AZ6" t="str">
+        <v/>
+      </c>
+      <c r="BA6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>D</v>
+      </c>
+      <c r="H7" t="str">
+        <v>D</v>
+      </c>
+      <c r="I7" t="str">
+        <v>D</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <v/>
+      </c>
+      <c r="AB7" t="str">
+        <v/>
+      </c>
+      <c r="AC7" t="str">
+        <v/>
+      </c>
+      <c r="AD7" t="str">
+        <v/>
+      </c>
+      <c r="AE7" t="str">
+        <v/>
+      </c>
+      <c r="AF7" t="str">
+        <v/>
+      </c>
+      <c r="AG7" t="str">
+        <v/>
+      </c>
+      <c r="AH7" t="str">
+        <v/>
+      </c>
+      <c r="AI7" t="str">
+        <v/>
+      </c>
+      <c r="AJ7" t="str">
+        <v/>
+      </c>
+      <c r="AK7" t="str">
+        <v/>
+      </c>
+      <c r="AL7" t="str">
+        <v/>
+      </c>
+      <c r="AM7" t="str">
+        <v/>
+      </c>
+      <c r="AN7" t="str">
+        <v/>
+      </c>
+      <c r="AO7" t="str">
+        <v/>
+      </c>
+      <c r="AP7" t="str">
+        <v/>
+      </c>
+      <c r="AQ7" t="str">
+        <v/>
+      </c>
+      <c r="AR7" t="str">
+        <v/>
+      </c>
+      <c r="AS7" t="str">
+        <v/>
+      </c>
+      <c r="AT7" t="str">
+        <v/>
+      </c>
+      <c r="AU7" t="str">
+        <v/>
+      </c>
+      <c r="AV7" t="str">
+        <v/>
+      </c>
+      <c r="AW7" t="str">
+        <v/>
+      </c>
+      <c r="AX7" t="str">
+        <v/>
+      </c>
+      <c r="AY7" t="str">
+        <v/>
+      </c>
+      <c r="AZ7" t="str">
+        <v/>
+      </c>
+      <c r="BA7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v>E</v>
+      </c>
+      <c r="J8" t="str">
+        <v>E</v>
+      </c>
+      <c r="K8" t="str">
+        <v>E</v>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <v/>
+      </c>
+      <c r="Z8" t="str">
+        <v/>
+      </c>
+      <c r="AA8" t="str">
+        <v/>
+      </c>
+      <c r="AB8" t="str">
+        <v/>
+      </c>
+      <c r="AC8" t="str">
+        <v/>
+      </c>
+      <c r="AD8" t="str">
+        <v/>
+      </c>
+      <c r="AE8" t="str">
+        <v/>
+      </c>
+      <c r="AF8" t="str">
+        <v/>
+      </c>
+      <c r="AG8" t="str">
+        <v/>
+      </c>
+      <c r="AH8" t="str">
+        <v/>
+      </c>
+      <c r="AI8" t="str">
+        <v/>
+      </c>
+      <c r="AJ8" t="str">
+        <v/>
+      </c>
+      <c r="AK8" t="str">
+        <v/>
+      </c>
+      <c r="AL8" t="str">
+        <v/>
+      </c>
+      <c r="AM8" t="str">
+        <v/>
+      </c>
+      <c r="AN8" t="str">
+        <v/>
+      </c>
+      <c r="AO8" t="str">
+        <v/>
+      </c>
+      <c r="AP8" t="str">
+        <v/>
+      </c>
+      <c r="AQ8" t="str">
+        <v/>
+      </c>
+      <c r="AR8" t="str">
+        <v/>
+      </c>
+      <c r="AS8" t="str">
+        <v/>
+      </c>
+      <c r="AT8" t="str">
+        <v/>
+      </c>
+      <c r="AU8" t="str">
+        <v/>
+      </c>
+      <c r="AV8" t="str">
+        <v/>
+      </c>
+      <c r="AW8" t="str">
+        <v/>
+      </c>
+      <c r="AX8" t="str">
+        <v/>
+      </c>
+      <c r="AY8" t="str">
+        <v/>
+      </c>
+      <c r="AZ8" t="str">
+        <v/>
+      </c>
+      <c r="BA8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v>F</v>
+      </c>
+      <c r="L9" t="str">
+        <v>F</v>
+      </c>
+      <c r="M9" t="str">
+        <v>F</v>
+      </c>
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <v/>
+      </c>
+      <c r="Y9" t="str">
+        <v/>
+      </c>
+      <c r="Z9" t="str">
+        <v/>
+      </c>
+      <c r="AA9" t="str">
+        <v/>
+      </c>
+      <c r="AB9" t="str">
+        <v/>
+      </c>
+      <c r="AC9" t="str">
+        <v/>
+      </c>
+      <c r="AD9" t="str">
+        <v/>
+      </c>
+      <c r="AE9" t="str">
+        <v/>
+      </c>
+      <c r="AF9" t="str">
+        <v/>
+      </c>
+      <c r="AG9" t="str">
+        <v/>
+      </c>
+      <c r="AH9" t="str">
+        <v/>
+      </c>
+      <c r="AI9" t="str">
+        <v/>
+      </c>
+      <c r="AJ9" t="str">
+        <v/>
+      </c>
+      <c r="AK9" t="str">
+        <v/>
+      </c>
+      <c r="AL9" t="str">
+        <v/>
+      </c>
+      <c r="AM9" t="str">
+        <v/>
+      </c>
+      <c r="AN9" t="str">
+        <v/>
+      </c>
+      <c r="AO9" t="str">
+        <v/>
+      </c>
+      <c r="AP9" t="str">
+        <v/>
+      </c>
+      <c r="AQ9" t="str">
+        <v/>
+      </c>
+      <c r="AR9" t="str">
+        <v/>
+      </c>
+      <c r="AS9" t="str">
+        <v/>
+      </c>
+      <c r="AT9" t="str">
+        <v/>
+      </c>
+      <c r="AU9" t="str">
+        <v/>
+      </c>
+      <c r="AV9" t="str">
+        <v/>
+      </c>
+      <c r="AW9" t="str">
+        <v/>
+      </c>
+      <c r="AX9" t="str">
+        <v/>
+      </c>
+      <c r="AY9" t="str">
+        <v/>
+      </c>
+      <c r="AZ9" t="str">
+        <v/>
+      </c>
+      <c r="BA9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <v>G</v>
+      </c>
+      <c r="N10" t="str">
+        <v>G</v>
+      </c>
+      <c r="O10" t="str">
+        <v>G</v>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <v/>
+      </c>
+      <c r="Y10" t="str">
+        <v/>
+      </c>
+      <c r="Z10" t="str">
+        <v/>
+      </c>
+      <c r="AA10" t="str">
+        <v/>
+      </c>
+      <c r="AB10" t="str">
+        <v/>
+      </c>
+      <c r="AC10" t="str">
+        <v/>
+      </c>
+      <c r="AD10" t="str">
+        <v/>
+      </c>
+      <c r="AE10" t="str">
+        <v/>
+      </c>
+      <c r="AF10" t="str">
+        <v/>
+      </c>
+      <c r="AG10" t="str">
+        <v/>
+      </c>
+      <c r="AH10" t="str">
+        <v/>
+      </c>
+      <c r="AI10" t="str">
+        <v/>
+      </c>
+      <c r="AJ10" t="str">
+        <v/>
+      </c>
+      <c r="AK10" t="str">
+        <v/>
+      </c>
+      <c r="AL10" t="str">
+        <v/>
+      </c>
+      <c r="AM10" t="str">
+        <v/>
+      </c>
+      <c r="AN10" t="str">
+        <v/>
+      </c>
+      <c r="AO10" t="str">
+        <v/>
+      </c>
+      <c r="AP10" t="str">
+        <v/>
+      </c>
+      <c r="AQ10" t="str">
+        <v/>
+      </c>
+      <c r="AR10" t="str">
+        <v/>
+      </c>
+      <c r="AS10" t="str">
+        <v/>
+      </c>
+      <c r="AT10" t="str">
+        <v/>
+      </c>
+      <c r="AU10" t="str">
+        <v/>
+      </c>
+      <c r="AV10" t="str">
+        <v/>
+      </c>
+      <c r="AW10" t="str">
+        <v/>
+      </c>
+      <c r="AX10" t="str">
+        <v/>
+      </c>
+      <c r="AY10" t="str">
+        <v/>
+      </c>
+      <c r="AZ10" t="str">
+        <v/>
+      </c>
+      <c r="BA10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v>H</v>
+      </c>
+      <c r="P11" t="str">
+        <v>H</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>H</v>
+      </c>
+      <c r="R11" t="str">
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <v/>
+      </c>
+      <c r="Z11" t="str">
+        <v/>
+      </c>
+      <c r="AA11" t="str">
+        <v/>
+      </c>
+      <c r="AB11" t="str">
+        <v/>
+      </c>
+      <c r="AC11" t="str">
+        <v/>
+      </c>
+      <c r="AD11" t="str">
+        <v/>
+      </c>
+      <c r="AE11" t="str">
+        <v/>
+      </c>
+      <c r="AF11" t="str">
+        <v/>
+      </c>
+      <c r="AG11" t="str">
+        <v/>
+      </c>
+      <c r="AH11" t="str">
+        <v/>
+      </c>
+      <c r="AI11" t="str">
+        <v/>
+      </c>
+      <c r="AJ11" t="str">
+        <v/>
+      </c>
+      <c r="AK11" t="str">
+        <v/>
+      </c>
+      <c r="AL11" t="str">
+        <v/>
+      </c>
+      <c r="AM11" t="str">
+        <v/>
+      </c>
+      <c r="AN11" t="str">
+        <v/>
+      </c>
+      <c r="AO11" t="str">
+        <v/>
+      </c>
+      <c r="AP11" t="str">
+        <v/>
+      </c>
+      <c r="AQ11" t="str">
+        <v/>
+      </c>
+      <c r="AR11" t="str">
+        <v/>
+      </c>
+      <c r="AS11" t="str">
+        <v/>
+      </c>
+      <c r="AT11" t="str">
+        <v/>
+      </c>
+      <c r="AU11" t="str">
+        <v/>
+      </c>
+      <c r="AV11" t="str">
+        <v/>
+      </c>
+      <c r="AW11" t="str">
+        <v/>
+      </c>
+      <c r="AX11" t="str">
+        <v/>
+      </c>
+      <c r="AY11" t="str">
+        <v/>
+      </c>
+      <c r="AZ11" t="str">
+        <v/>
+      </c>
+      <c r="BA11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <v>I</v>
+      </c>
+      <c r="R12" t="str">
+        <v>I</v>
+      </c>
+      <c r="S12" t="str">
+        <v>I</v>
+      </c>
+      <c r="T12" t="str">
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <v/>
+      </c>
+      <c r="W12" t="str">
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <v/>
+      </c>
+      <c r="Y12" t="str">
+        <v/>
+      </c>
+      <c r="Z12" t="str">
+        <v/>
+      </c>
+      <c r="AA12" t="str">
+        <v/>
+      </c>
+      <c r="AB12" t="str">
+        <v/>
+      </c>
+      <c r="AC12" t="str">
+        <v/>
+      </c>
+      <c r="AD12" t="str">
+        <v/>
+      </c>
+      <c r="AE12" t="str">
+        <v/>
+      </c>
+      <c r="AF12" t="str">
+        <v/>
+      </c>
+      <c r="AG12" t="str">
+        <v/>
+      </c>
+      <c r="AH12" t="str">
+        <v/>
+      </c>
+      <c r="AI12" t="str">
+        <v/>
+      </c>
+      <c r="AJ12" t="str">
+        <v/>
+      </c>
+      <c r="AK12" t="str">
+        <v/>
+      </c>
+      <c r="AL12" t="str">
+        <v/>
+      </c>
+      <c r="AM12" t="str">
+        <v/>
+      </c>
+      <c r="AN12" t="str">
+        <v/>
+      </c>
+      <c r="AO12" t="str">
+        <v/>
+      </c>
+      <c r="AP12" t="str">
+        <v/>
+      </c>
+      <c r="AQ12" t="str">
+        <v/>
+      </c>
+      <c r="AR12" t="str">
+        <v/>
+      </c>
+      <c r="AS12" t="str">
+        <v/>
+      </c>
+      <c r="AT12" t="str">
+        <v/>
+      </c>
+      <c r="AU12" t="str">
+        <v/>
+      </c>
+      <c r="AV12" t="str">
+        <v/>
+      </c>
+      <c r="AW12" t="str">
+        <v/>
+      </c>
+      <c r="AX12" t="str">
+        <v/>
+      </c>
+      <c r="AY12" t="str">
+        <v/>
+      </c>
+      <c r="AZ12" t="str">
+        <v/>
+      </c>
+      <c r="BA12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <v>J</v>
+      </c>
+      <c r="T13" t="str">
+        <v>J</v>
+      </c>
+      <c r="U13" t="str">
+        <v>J</v>
+      </c>
+      <c r="V13" t="str">
+        <v/>
+      </c>
+      <c r="W13" t="str">
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <v/>
+      </c>
+      <c r="Y13" t="str">
+        <v/>
+      </c>
+      <c r="Z13" t="str">
+        <v/>
+      </c>
+      <c r="AA13" t="str">
+        <v/>
+      </c>
+      <c r="AB13" t="str">
+        <v/>
+      </c>
+      <c r="AC13" t="str">
+        <v/>
+      </c>
+      <c r="AD13" t="str">
+        <v/>
+      </c>
+      <c r="AE13" t="str">
+        <v/>
+      </c>
+      <c r="AF13" t="str">
+        <v/>
+      </c>
+      <c r="AG13" t="str">
+        <v/>
+      </c>
+      <c r="AH13" t="str">
+        <v/>
+      </c>
+      <c r="AI13" t="str">
+        <v/>
+      </c>
+      <c r="AJ13" t="str">
+        <v/>
+      </c>
+      <c r="AK13" t="str">
+        <v/>
+      </c>
+      <c r="AL13" t="str">
+        <v/>
+      </c>
+      <c r="AM13" t="str">
+        <v/>
+      </c>
+      <c r="AN13" t="str">
+        <v/>
+      </c>
+      <c r="AO13" t="str">
+        <v/>
+      </c>
+      <c r="AP13" t="str">
+        <v/>
+      </c>
+      <c r="AQ13" t="str">
+        <v/>
+      </c>
+      <c r="AR13" t="str">
+        <v/>
+      </c>
+      <c r="AS13" t="str">
+        <v/>
+      </c>
+      <c r="AT13" t="str">
+        <v/>
+      </c>
+      <c r="AU13" t="str">
+        <v/>
+      </c>
+      <c r="AV13" t="str">
+        <v/>
+      </c>
+      <c r="AW13" t="str">
+        <v/>
+      </c>
+      <c r="AX13" t="str">
+        <v/>
+      </c>
+      <c r="AY13" t="str">
+        <v/>
+      </c>
+      <c r="AZ13" t="str">
+        <v/>
+      </c>
+      <c r="BA13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <v>K</v>
+      </c>
+      <c r="V14" t="str">
+        <v>K</v>
+      </c>
+      <c r="W14" t="str">
+        <v>K</v>
+      </c>
+      <c r="X14" t="str">
+        <v/>
+      </c>
+      <c r="Y14" t="str">
+        <v/>
+      </c>
+      <c r="Z14" t="str">
+        <v/>
+      </c>
+      <c r="AA14" t="str">
+        <v/>
+      </c>
+      <c r="AB14" t="str">
+        <v/>
+      </c>
+      <c r="AC14" t="str">
+        <v/>
+      </c>
+      <c r="AD14" t="str">
+        <v/>
+      </c>
+      <c r="AE14" t="str">
+        <v/>
+      </c>
+      <c r="AF14" t="str">
+        <v/>
+      </c>
+      <c r="AG14" t="str">
+        <v/>
+      </c>
+      <c r="AH14" t="str">
+        <v/>
+      </c>
+      <c r="AI14" t="str">
+        <v/>
+      </c>
+      <c r="AJ14" t="str">
+        <v/>
+      </c>
+      <c r="AK14" t="str">
+        <v/>
+      </c>
+      <c r="AL14" t="str">
+        <v/>
+      </c>
+      <c r="AM14" t="str">
+        <v/>
+      </c>
+      <c r="AN14" t="str">
+        <v/>
+      </c>
+      <c r="AO14" t="str">
+        <v/>
+      </c>
+      <c r="AP14" t="str">
+        <v/>
+      </c>
+      <c r="AQ14" t="str">
+        <v/>
+      </c>
+      <c r="AR14" t="str">
+        <v/>
+      </c>
+      <c r="AS14" t="str">
+        <v/>
+      </c>
+      <c r="AT14" t="str">
+        <v/>
+      </c>
+      <c r="AU14" t="str">
+        <v/>
+      </c>
+      <c r="AV14" t="str">
+        <v/>
+      </c>
+      <c r="AW14" t="str">
+        <v/>
+      </c>
+      <c r="AX14" t="str">
+        <v/>
+      </c>
+      <c r="AY14" t="str">
+        <v/>
+      </c>
+      <c r="AZ14" t="str">
+        <v/>
+      </c>
+      <c r="BA14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <v/>
+      </c>
+      <c r="W15" t="str">
+        <v>L</v>
+      </c>
+      <c r="X15" t="str">
+        <v>L</v>
+      </c>
+      <c r="Y15" t="str">
+        <v>L</v>
+      </c>
+      <c r="Z15" t="str">
+        <v/>
+      </c>
+      <c r="AA15" t="str">
+        <v/>
+      </c>
+      <c r="AB15" t="str">
+        <v/>
+      </c>
+      <c r="AC15" t="str">
+        <v/>
+      </c>
+      <c r="AD15" t="str">
+        <v/>
+      </c>
+      <c r="AE15" t="str">
+        <v/>
+      </c>
+      <c r="AF15" t="str">
+        <v/>
+      </c>
+      <c r="AG15" t="str">
+        <v/>
+      </c>
+      <c r="AH15" t="str">
+        <v/>
+      </c>
+      <c r="AI15" t="str">
+        <v/>
+      </c>
+      <c r="AJ15" t="str">
+        <v/>
+      </c>
+      <c r="AK15" t="str">
+        <v/>
+      </c>
+      <c r="AL15" t="str">
+        <v/>
+      </c>
+      <c r="AM15" t="str">
+        <v/>
+      </c>
+      <c r="AN15" t="str">
+        <v/>
+      </c>
+      <c r="AO15" t="str">
+        <v/>
+      </c>
+      <c r="AP15" t="str">
+        <v/>
+      </c>
+      <c r="AQ15" t="str">
+        <v/>
+      </c>
+      <c r="AR15" t="str">
+        <v/>
+      </c>
+      <c r="AS15" t="str">
+        <v/>
+      </c>
+      <c r="AT15" t="str">
+        <v/>
+      </c>
+      <c r="AU15" t="str">
+        <v/>
+      </c>
+      <c r="AV15" t="str">
+        <v/>
+      </c>
+      <c r="AW15" t="str">
+        <v/>
+      </c>
+      <c r="AX15" t="str">
+        <v/>
+      </c>
+      <c r="AY15" t="str">
+        <v/>
+      </c>
+      <c r="AZ15" t="str">
+        <v/>
+      </c>
+      <c r="BA15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <v/>
+      </c>
+      <c r="Y16" t="str">
+        <v>M</v>
+      </c>
+      <c r="Z16" t="str">
+        <v>M</v>
+      </c>
+      <c r="AA16" t="str">
+        <v>M</v>
+      </c>
+      <c r="AB16" t="str">
+        <v/>
+      </c>
+      <c r="AC16" t="str">
+        <v/>
+      </c>
+      <c r="AD16" t="str">
+        <v/>
+      </c>
+      <c r="AE16" t="str">
+        <v/>
+      </c>
+      <c r="AF16" t="str">
+        <v/>
+      </c>
+      <c r="AG16" t="str">
+        <v/>
+      </c>
+      <c r="AH16" t="str">
+        <v/>
+      </c>
+      <c r="AI16" t="str">
+        <v/>
+      </c>
+      <c r="AJ16" t="str">
+        <v/>
+      </c>
+      <c r="AK16" t="str">
+        <v/>
+      </c>
+      <c r="AL16" t="str">
+        <v/>
+      </c>
+      <c r="AM16" t="str">
+        <v/>
+      </c>
+      <c r="AN16" t="str">
+        <v/>
+      </c>
+      <c r="AO16" t="str">
+        <v/>
+      </c>
+      <c r="AP16" t="str">
+        <v/>
+      </c>
+      <c r="AQ16" t="str">
+        <v/>
+      </c>
+      <c r="AR16" t="str">
+        <v/>
+      </c>
+      <c r="AS16" t="str">
+        <v/>
+      </c>
+      <c r="AT16" t="str">
+        <v/>
+      </c>
+      <c r="AU16" t="str">
+        <v/>
+      </c>
+      <c r="AV16" t="str">
+        <v/>
+      </c>
+      <c r="AW16" t="str">
+        <v/>
+      </c>
+      <c r="AX16" t="str">
+        <v/>
+      </c>
+      <c r="AY16" t="str">
+        <v/>
+      </c>
+      <c r="AZ16" t="str">
+        <v/>
+      </c>
+      <c r="BA16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <v/>
+      </c>
+      <c r="Y17" t="str">
+        <v/>
+      </c>
+      <c r="Z17" t="str">
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <v>N</v>
+      </c>
+      <c r="AB17" t="str">
+        <v>N</v>
+      </c>
+      <c r="AC17" t="str">
+        <v>N</v>
+      </c>
+      <c r="AD17" t="str">
+        <v/>
+      </c>
+      <c r="AE17" t="str">
+        <v/>
+      </c>
+      <c r="AF17" t="str">
+        <v/>
+      </c>
+      <c r="AG17" t="str">
+        <v/>
+      </c>
+      <c r="AH17" t="str">
+        <v/>
+      </c>
+      <c r="AI17" t="str">
+        <v/>
+      </c>
+      <c r="AJ17" t="str">
+        <v/>
+      </c>
+      <c r="AK17" t="str">
+        <v/>
+      </c>
+      <c r="AL17" t="str">
+        <v/>
+      </c>
+      <c r="AM17" t="str">
+        <v/>
+      </c>
+      <c r="AN17" t="str">
+        <v/>
+      </c>
+      <c r="AO17" t="str">
+        <v/>
+      </c>
+      <c r="AP17" t="str">
+        <v/>
+      </c>
+      <c r="AQ17" t="str">
+        <v/>
+      </c>
+      <c r="AR17" t="str">
+        <v/>
+      </c>
+      <c r="AS17" t="str">
+        <v/>
+      </c>
+      <c r="AT17" t="str">
+        <v/>
+      </c>
+      <c r="AU17" t="str">
+        <v/>
+      </c>
+      <c r="AV17" t="str">
+        <v/>
+      </c>
+      <c r="AW17" t="str">
+        <v/>
+      </c>
+      <c r="AX17" t="str">
+        <v/>
+      </c>
+      <c r="AY17" t="str">
+        <v/>
+      </c>
+      <c r="AZ17" t="str">
+        <v/>
+      </c>
+      <c r="BA17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <v/>
+      </c>
+      <c r="Y18" t="str">
+        <v/>
+      </c>
+      <c r="Z18" t="str">
+        <v/>
+      </c>
+      <c r="AA18" t="str">
+        <v/>
+      </c>
+      <c r="AB18" t="str">
+        <v/>
+      </c>
+      <c r="AC18" t="str">
+        <v>O</v>
+      </c>
+      <c r="AD18" t="str">
+        <v>O</v>
+      </c>
+      <c r="AE18" t="str">
+        <v>O</v>
+      </c>
+      <c r="AF18" t="str">
+        <v/>
+      </c>
+      <c r="AG18" t="str">
+        <v/>
+      </c>
+      <c r="AH18" t="str">
+        <v/>
+      </c>
+      <c r="AI18" t="str">
+        <v/>
+      </c>
+      <c r="AJ18" t="str">
+        <v/>
+      </c>
+      <c r="AK18" t="str">
+        <v/>
+      </c>
+      <c r="AL18" t="str">
+        <v/>
+      </c>
+      <c r="AM18" t="str">
+        <v/>
+      </c>
+      <c r="AN18" t="str">
+        <v/>
+      </c>
+      <c r="AO18" t="str">
+        <v/>
+      </c>
+      <c r="AP18" t="str">
+        <v/>
+      </c>
+      <c r="AQ18" t="str">
+        <v/>
+      </c>
+      <c r="AR18" t="str">
+        <v/>
+      </c>
+      <c r="AS18" t="str">
+        <v/>
+      </c>
+      <c r="AT18" t="str">
+        <v/>
+      </c>
+      <c r="AU18" t="str">
+        <v/>
+      </c>
+      <c r="AV18" t="str">
+        <v/>
+      </c>
+      <c r="AW18" t="str">
+        <v/>
+      </c>
+      <c r="AX18" t="str">
+        <v/>
+      </c>
+      <c r="AY18" t="str">
+        <v/>
+      </c>
+      <c r="AZ18" t="str">
+        <v/>
+      </c>
+      <c r="BA18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <v/>
+      </c>
+      <c r="Z19" t="str">
+        <v/>
+      </c>
+      <c r="AA19" t="str">
+        <v/>
+      </c>
+      <c r="AB19" t="str">
+        <v/>
+      </c>
+      <c r="AC19" t="str">
+        <v/>
+      </c>
+      <c r="AD19" t="str">
+        <v/>
+      </c>
+      <c r="AE19" t="str">
+        <v>P</v>
+      </c>
+      <c r="AF19" t="str">
+        <v>P</v>
+      </c>
+      <c r="AG19" t="str">
+        <v>P</v>
+      </c>
+      <c r="AH19" t="str">
+        <v/>
+      </c>
+      <c r="AI19" t="str">
+        <v/>
+      </c>
+      <c r="AJ19" t="str">
+        <v/>
+      </c>
+      <c r="AK19" t="str">
+        <v/>
+      </c>
+      <c r="AL19" t="str">
+        <v/>
+      </c>
+      <c r="AM19" t="str">
+        <v/>
+      </c>
+      <c r="AN19" t="str">
+        <v/>
+      </c>
+      <c r="AO19" t="str">
+        <v/>
+      </c>
+      <c r="AP19" t="str">
+        <v/>
+      </c>
+      <c r="AQ19" t="str">
+        <v/>
+      </c>
+      <c r="AR19" t="str">
+        <v/>
+      </c>
+      <c r="AS19" t="str">
+        <v/>
+      </c>
+      <c r="AT19" t="str">
+        <v/>
+      </c>
+      <c r="AU19" t="str">
+        <v/>
+      </c>
+      <c r="AV19" t="str">
+        <v/>
+      </c>
+      <c r="AW19" t="str">
+        <v/>
+      </c>
+      <c r="AX19" t="str">
+        <v/>
+      </c>
+      <c r="AY19" t="str">
+        <v/>
+      </c>
+      <c r="AZ19" t="str">
+        <v/>
+      </c>
+      <c r="BA19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <v/>
+      </c>
+      <c r="Z20" t="str">
+        <v/>
+      </c>
+      <c r="AA20" t="str">
+        <v/>
+      </c>
+      <c r="AB20" t="str">
+        <v/>
+      </c>
+      <c r="AC20" t="str">
+        <v/>
+      </c>
+      <c r="AD20" t="str">
+        <v/>
+      </c>
+      <c r="AE20" t="str">
+        <v/>
+      </c>
+      <c r="AF20" t="str">
+        <v/>
+      </c>
+      <c r="AG20" t="str">
+        <v>Q</v>
+      </c>
+      <c r="AH20" t="str">
+        <v>Q</v>
+      </c>
+      <c r="AI20" t="str">
+        <v>Q</v>
+      </c>
+      <c r="AJ20" t="str">
+        <v/>
+      </c>
+      <c r="AK20" t="str">
+        <v/>
+      </c>
+      <c r="AL20" t="str">
+        <v/>
+      </c>
+      <c r="AM20" t="str">
+        <v/>
+      </c>
+      <c r="AN20" t="str">
+        <v/>
+      </c>
+      <c r="AO20" t="str">
+        <v/>
+      </c>
+      <c r="AP20" t="str">
+        <v/>
+      </c>
+      <c r="AQ20" t="str">
+        <v/>
+      </c>
+      <c r="AR20" t="str">
+        <v/>
+      </c>
+      <c r="AS20" t="str">
+        <v/>
+      </c>
+      <c r="AT20" t="str">
+        <v/>
+      </c>
+      <c r="AU20" t="str">
+        <v/>
+      </c>
+      <c r="AV20" t="str">
+        <v/>
+      </c>
+      <c r="AW20" t="str">
+        <v/>
+      </c>
+      <c r="AX20" t="str">
+        <v/>
+      </c>
+      <c r="AY20" t="str">
+        <v/>
+      </c>
+      <c r="AZ20" t="str">
+        <v/>
+      </c>
+      <c r="BA20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <v/>
+      </c>
+      <c r="V21" t="str">
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <v/>
+      </c>
+      <c r="X21" t="str">
+        <v/>
+      </c>
+      <c r="Y21" t="str">
+        <v/>
+      </c>
+      <c r="Z21" t="str">
+        <v/>
+      </c>
+      <c r="AA21" t="str">
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <v/>
+      </c>
+      <c r="AC21" t="str">
+        <v/>
+      </c>
+      <c r="AD21" t="str">
+        <v/>
+      </c>
+      <c r="AE21" t="str">
+        <v/>
+      </c>
+      <c r="AF21" t="str">
+        <v/>
+      </c>
+      <c r="AG21" t="str">
+        <v/>
+      </c>
+      <c r="AH21" t="str">
+        <v/>
+      </c>
+      <c r="AI21" t="str">
+        <v>R</v>
+      </c>
+      <c r="AJ21" t="str">
+        <v>R</v>
+      </c>
+      <c r="AK21" t="str">
+        <v>R</v>
+      </c>
+      <c r="AL21" t="str">
+        <v/>
+      </c>
+      <c r="AM21" t="str">
+        <v/>
+      </c>
+      <c r="AN21" t="str">
+        <v/>
+      </c>
+      <c r="AO21" t="str">
+        <v/>
+      </c>
+      <c r="AP21" t="str">
+        <v/>
+      </c>
+      <c r="AQ21" t="str">
+        <v/>
+      </c>
+      <c r="AR21" t="str">
+        <v/>
+      </c>
+      <c r="AS21" t="str">
+        <v/>
+      </c>
+      <c r="AT21" t="str">
+        <v/>
+      </c>
+      <c r="AU21" t="str">
+        <v/>
+      </c>
+      <c r="AV21" t="str">
+        <v/>
+      </c>
+      <c r="AW21" t="str">
+        <v/>
+      </c>
+      <c r="AX21" t="str">
+        <v/>
+      </c>
+      <c r="AY21" t="str">
+        <v/>
+      </c>
+      <c r="AZ21" t="str">
+        <v/>
+      </c>
+      <c r="BA21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <v/>
+      </c>
+      <c r="S22" t="str">
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <v/>
+      </c>
+      <c r="U22" t="str">
+        <v/>
+      </c>
+      <c r="V22" t="str">
+        <v/>
+      </c>
+      <c r="W22" t="str">
+        <v/>
+      </c>
+      <c r="X22" t="str">
+        <v/>
+      </c>
+      <c r="Y22" t="str">
+        <v/>
+      </c>
+      <c r="Z22" t="str">
+        <v/>
+      </c>
+      <c r="AA22" t="str">
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <v/>
+      </c>
+      <c r="AC22" t="str">
+        <v/>
+      </c>
+      <c r="AD22" t="str">
+        <v/>
+      </c>
+      <c r="AE22" t="str">
+        <v/>
+      </c>
+      <c r="AF22" t="str">
+        <v/>
+      </c>
+      <c r="AG22" t="str">
+        <v/>
+      </c>
+      <c r="AH22" t="str">
+        <v/>
+      </c>
+      <c r="AI22" t="str">
+        <v/>
+      </c>
+      <c r="AJ22" t="str">
+        <v/>
+      </c>
+      <c r="AK22" t="str">
+        <v>S</v>
+      </c>
+      <c r="AL22" t="str">
+        <v>S</v>
+      </c>
+      <c r="AM22" t="str">
+        <v>S</v>
+      </c>
+      <c r="AN22" t="str">
+        <v/>
+      </c>
+      <c r="AO22" t="str">
+        <v/>
+      </c>
+      <c r="AP22" t="str">
+        <v/>
+      </c>
+      <c r="AQ22" t="str">
+        <v/>
+      </c>
+      <c r="AR22" t="str">
+        <v/>
+      </c>
+      <c r="AS22" t="str">
+        <v/>
+      </c>
+      <c r="AT22" t="str">
+        <v/>
+      </c>
+      <c r="AU22" t="str">
+        <v/>
+      </c>
+      <c r="AV22" t="str">
+        <v/>
+      </c>
+      <c r="AW22" t="str">
+        <v/>
+      </c>
+      <c r="AX22" t="str">
+        <v/>
+      </c>
+      <c r="AY22" t="str">
+        <v/>
+      </c>
+      <c r="AZ22" t="str">
+        <v/>
+      </c>
+      <c r="BA22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <v/>
+      </c>
+      <c r="S23" t="str">
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <v/>
+      </c>
+      <c r="U23" t="str">
+        <v/>
+      </c>
+      <c r="V23" t="str">
+        <v/>
+      </c>
+      <c r="W23" t="str">
+        <v/>
+      </c>
+      <c r="X23" t="str">
+        <v/>
+      </c>
+      <c r="Y23" t="str">
+        <v/>
+      </c>
+      <c r="Z23" t="str">
+        <v/>
+      </c>
+      <c r="AA23" t="str">
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <v/>
+      </c>
+      <c r="AC23" t="str">
+        <v/>
+      </c>
+      <c r="AD23" t="str">
+        <v/>
+      </c>
+      <c r="AE23" t="str">
+        <v/>
+      </c>
+      <c r="AF23" t="str">
+        <v/>
+      </c>
+      <c r="AG23" t="str">
+        <v/>
+      </c>
+      <c r="AH23" t="str">
+        <v/>
+      </c>
+      <c r="AI23" t="str">
+        <v/>
+      </c>
+      <c r="AJ23" t="str">
+        <v/>
+      </c>
+      <c r="AK23" t="str">
+        <v/>
+      </c>
+      <c r="AL23" t="str">
+        <v/>
+      </c>
+      <c r="AM23" t="str">
+        <v>T</v>
+      </c>
+      <c r="AN23" t="str">
+        <v>T</v>
+      </c>
+      <c r="AO23" t="str">
+        <v>T</v>
+      </c>
+      <c r="AP23" t="str">
+        <v/>
+      </c>
+      <c r="AQ23" t="str">
+        <v/>
+      </c>
+      <c r="AR23" t="str">
+        <v/>
+      </c>
+      <c r="AS23" t="str">
+        <v/>
+      </c>
+      <c r="AT23" t="str">
+        <v/>
+      </c>
+      <c r="AU23" t="str">
+        <v/>
+      </c>
+      <c r="AV23" t="str">
+        <v/>
+      </c>
+      <c r="AW23" t="str">
+        <v/>
+      </c>
+      <c r="AX23" t="str">
+        <v/>
+      </c>
+      <c r="AY23" t="str">
+        <v/>
+      </c>
+      <c r="AZ23" t="str">
+        <v/>
+      </c>
+      <c r="BA23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v/>
+      </c>
+      <c r="U24" t="str">
+        <v/>
+      </c>
+      <c r="V24" t="str">
+        <v/>
+      </c>
+      <c r="W24" t="str">
+        <v/>
+      </c>
+      <c r="X24" t="str">
+        <v/>
+      </c>
+      <c r="Y24" t="str">
+        <v/>
+      </c>
+      <c r="Z24" t="str">
+        <v/>
+      </c>
+      <c r="AA24" t="str">
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <v/>
+      </c>
+      <c r="AC24" t="str">
+        <v/>
+      </c>
+      <c r="AD24" t="str">
+        <v/>
+      </c>
+      <c r="AE24" t="str">
+        <v/>
+      </c>
+      <c r="AF24" t="str">
+        <v/>
+      </c>
+      <c r="AG24" t="str">
+        <v/>
+      </c>
+      <c r="AH24" t="str">
+        <v/>
+      </c>
+      <c r="AI24" t="str">
+        <v/>
+      </c>
+      <c r="AJ24" t="str">
+        <v/>
+      </c>
+      <c r="AK24" t="str">
+        <v/>
+      </c>
+      <c r="AL24" t="str">
+        <v/>
+      </c>
+      <c r="AM24" t="str">
+        <v/>
+      </c>
+      <c r="AN24" t="str">
+        <v/>
+      </c>
+      <c r="AO24" t="str">
+        <v>U</v>
+      </c>
+      <c r="AP24" t="str">
+        <v>U</v>
+      </c>
+      <c r="AQ24" t="str">
+        <v>U</v>
+      </c>
+      <c r="AR24" t="str">
+        <v/>
+      </c>
+      <c r="AS24" t="str">
+        <v/>
+      </c>
+      <c r="AT24" t="str">
+        <v/>
+      </c>
+      <c r="AU24" t="str">
+        <v/>
+      </c>
+      <c r="AV24" t="str">
+        <v/>
+      </c>
+      <c r="AW24" t="str">
+        <v/>
+      </c>
+      <c r="AX24" t="str">
+        <v/>
+      </c>
+      <c r="AY24" t="str">
+        <v/>
+      </c>
+      <c r="AZ24" t="str">
+        <v/>
+      </c>
+      <c r="BA24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <v/>
+      </c>
+      <c r="U25" t="str">
+        <v/>
+      </c>
+      <c r="V25" t="str">
+        <v/>
+      </c>
+      <c r="W25" t="str">
+        <v/>
+      </c>
+      <c r="X25" t="str">
+        <v/>
+      </c>
+      <c r="Y25" t="str">
+        <v/>
+      </c>
+      <c r="Z25" t="str">
+        <v/>
+      </c>
+      <c r="AA25" t="str">
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <v/>
+      </c>
+      <c r="AC25" t="str">
+        <v/>
+      </c>
+      <c r="AD25" t="str">
+        <v/>
+      </c>
+      <c r="AE25" t="str">
+        <v/>
+      </c>
+      <c r="AF25" t="str">
+        <v/>
+      </c>
+      <c r="AG25" t="str">
+        <v/>
+      </c>
+      <c r="AH25" t="str">
+        <v/>
+      </c>
+      <c r="AI25" t="str">
+        <v/>
+      </c>
+      <c r="AJ25" t="str">
+        <v/>
+      </c>
+      <c r="AK25" t="str">
+        <v/>
+      </c>
+      <c r="AL25" t="str">
+        <v/>
+      </c>
+      <c r="AM25" t="str">
+        <v/>
+      </c>
+      <c r="AN25" t="str">
+        <v/>
+      </c>
+      <c r="AO25" t="str">
+        <v/>
+      </c>
+      <c r="AP25" t="str">
+        <v/>
+      </c>
+      <c r="AQ25" t="str">
+        <v>V</v>
+      </c>
+      <c r="AR25" t="str">
+        <v>V</v>
+      </c>
+      <c r="AS25" t="str">
+        <v>V</v>
+      </c>
+      <c r="AT25" t="str">
+        <v/>
+      </c>
+      <c r="AU25" t="str">
+        <v/>
+      </c>
+      <c r="AV25" t="str">
+        <v/>
+      </c>
+      <c r="AW25" t="str">
+        <v/>
+      </c>
+      <c r="AX25" t="str">
+        <v/>
+      </c>
+      <c r="AY25" t="str">
+        <v/>
+      </c>
+      <c r="AZ25" t="str">
+        <v/>
+      </c>
+      <c r="BA25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <v/>
+      </c>
+      <c r="V26" t="str">
+        <v/>
+      </c>
+      <c r="W26" t="str">
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <v/>
+      </c>
+      <c r="Y26" t="str">
+        <v/>
+      </c>
+      <c r="Z26" t="str">
+        <v/>
+      </c>
+      <c r="AA26" t="str">
+        <v/>
+      </c>
+      <c r="AB26" t="str">
+        <v/>
+      </c>
+      <c r="AC26" t="str">
+        <v/>
+      </c>
+      <c r="AD26" t="str">
+        <v/>
+      </c>
+      <c r="AE26" t="str">
+        <v/>
+      </c>
+      <c r="AF26" t="str">
+        <v/>
+      </c>
+      <c r="AG26" t="str">
+        <v/>
+      </c>
+      <c r="AH26" t="str">
+        <v/>
+      </c>
+      <c r="AI26" t="str">
+        <v/>
+      </c>
+      <c r="AJ26" t="str">
+        <v/>
+      </c>
+      <c r="AK26" t="str">
+        <v/>
+      </c>
+      <c r="AL26" t="str">
+        <v/>
+      </c>
+      <c r="AM26" t="str">
+        <v/>
+      </c>
+      <c r="AN26" t="str">
+        <v/>
+      </c>
+      <c r="AO26" t="str">
+        <v/>
+      </c>
+      <c r="AP26" t="str">
+        <v/>
+      </c>
+      <c r="AQ26" t="str">
+        <v/>
+      </c>
+      <c r="AR26" t="str">
+        <v/>
+      </c>
+      <c r="AS26" t="str">
+        <v>W</v>
+      </c>
+      <c r="AT26" t="str">
+        <v>W</v>
+      </c>
+      <c r="AU26" t="str">
+        <v>W</v>
+      </c>
+      <c r="AV26" t="str">
+        <v/>
+      </c>
+      <c r="AW26" t="str">
+        <v/>
+      </c>
+      <c r="AX26" t="str">
+        <v/>
+      </c>
+      <c r="AY26" t="str">
+        <v/>
+      </c>
+      <c r="AZ26" t="str">
+        <v/>
+      </c>
+      <c r="BA26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <v/>
+      </c>
+      <c r="V27" t="str">
+        <v/>
+      </c>
+      <c r="W27" t="str">
+        <v/>
+      </c>
+      <c r="X27" t="str">
+        <v/>
+      </c>
+      <c r="Y27" t="str">
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <v/>
+      </c>
+      <c r="AA27" t="str">
+        <v/>
+      </c>
+      <c r="AB27" t="str">
+        <v/>
+      </c>
+      <c r="AC27" t="str">
+        <v/>
+      </c>
+      <c r="AD27" t="str">
+        <v/>
+      </c>
+      <c r="AE27" t="str">
+        <v/>
+      </c>
+      <c r="AF27" t="str">
+        <v/>
+      </c>
+      <c r="AG27" t="str">
+        <v/>
+      </c>
+      <c r="AH27" t="str">
+        <v/>
+      </c>
+      <c r="AI27" t="str">
+        <v/>
+      </c>
+      <c r="AJ27" t="str">
+        <v/>
+      </c>
+      <c r="AK27" t="str">
+        <v/>
+      </c>
+      <c r="AL27" t="str">
+        <v/>
+      </c>
+      <c r="AM27" t="str">
+        <v/>
+      </c>
+      <c r="AN27" t="str">
+        <v/>
+      </c>
+      <c r="AO27" t="str">
+        <v/>
+      </c>
+      <c r="AP27" t="str">
+        <v/>
+      </c>
+      <c r="AQ27" t="str">
+        <v/>
+      </c>
+      <c r="AR27" t="str">
+        <v/>
+      </c>
+      <c r="AS27" t="str">
+        <v/>
+      </c>
+      <c r="AT27" t="str">
+        <v/>
+      </c>
+      <c r="AU27" t="str">
+        <v>X</v>
+      </c>
+      <c r="AV27" t="str">
+        <v>X</v>
+      </c>
+      <c r="AW27" t="str">
+        <v>X</v>
+      </c>
+      <c r="AX27" t="str">
+        <v/>
+      </c>
+      <c r="AY27" t="str">
+        <v/>
+      </c>
+      <c r="AZ27" t="str">
+        <v/>
+      </c>
+      <c r="BA27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <v/>
+      </c>
+      <c r="M28" t="str">
+        <v/>
+      </c>
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <v/>
+      </c>
+      <c r="Q28" t="str">
+        <v/>
+      </c>
+      <c r="R28" t="str">
+        <v/>
+      </c>
+      <c r="S28" t="str">
+        <v/>
+      </c>
+      <c r="T28" t="str">
+        <v/>
+      </c>
+      <c r="U28" t="str">
+        <v/>
+      </c>
+      <c r="V28" t="str">
+        <v/>
+      </c>
+      <c r="W28" t="str">
+        <v/>
+      </c>
+      <c r="X28" t="str">
+        <v/>
+      </c>
+      <c r="Y28" t="str">
+        <v/>
+      </c>
+      <c r="Z28" t="str">
+        <v/>
+      </c>
+      <c r="AA28" t="str">
+        <v/>
+      </c>
+      <c r="AB28" t="str">
+        <v/>
+      </c>
+      <c r="AC28" t="str">
+        <v/>
+      </c>
+      <c r="AD28" t="str">
+        <v/>
+      </c>
+      <c r="AE28" t="str">
+        <v/>
+      </c>
+      <c r="AF28" t="str">
+        <v/>
+      </c>
+      <c r="AG28" t="str">
+        <v/>
+      </c>
+      <c r="AH28" t="str">
+        <v/>
+      </c>
+      <c r="AI28" t="str">
+        <v/>
+      </c>
+      <c r="AJ28" t="str">
+        <v/>
+      </c>
+      <c r="AK28" t="str">
+        <v/>
+      </c>
+      <c r="AL28" t="str">
+        <v/>
+      </c>
+      <c r="AM28" t="str">
+        <v/>
+      </c>
+      <c r="AN28" t="str">
+        <v/>
+      </c>
+      <c r="AO28" t="str">
+        <v/>
+      </c>
+      <c r="AP28" t="str">
+        <v/>
+      </c>
+      <c r="AQ28" t="str">
+        <v/>
+      </c>
+      <c r="AR28" t="str">
+        <v/>
+      </c>
+      <c r="AS28" t="str">
+        <v/>
+      </c>
+      <c r="AT28" t="str">
+        <v/>
+      </c>
+      <c r="AU28" t="str">
+        <v/>
+      </c>
+      <c r="AV28" t="str">
+        <v/>
+      </c>
+      <c r="AW28" t="str">
+        <v>Y</v>
+      </c>
+      <c r="AX28" t="str">
+        <v>Y</v>
+      </c>
+      <c r="AY28" t="str">
+        <v>Y</v>
+      </c>
+      <c r="AZ28" t="str">
+        <v/>
+      </c>
+      <c r="BA28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <v/>
+      </c>
+      <c r="P29" t="str">
+        <v/>
+      </c>
+      <c r="Q29" t="str">
+        <v/>
+      </c>
+      <c r="R29" t="str">
+        <v/>
+      </c>
+      <c r="S29" t="str">
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <v/>
+      </c>
+      <c r="U29" t="str">
+        <v/>
+      </c>
+      <c r="V29" t="str">
+        <v/>
+      </c>
+      <c r="W29" t="str">
+        <v/>
+      </c>
+      <c r="X29" t="str">
+        <v/>
+      </c>
+      <c r="Y29" t="str">
+        <v/>
+      </c>
+      <c r="Z29" t="str">
+        <v/>
+      </c>
+      <c r="AA29" t="str">
+        <v/>
+      </c>
+      <c r="AB29" t="str">
+        <v/>
+      </c>
+      <c r="AC29" t="str">
+        <v/>
+      </c>
+      <c r="AD29" t="str">
+        <v/>
+      </c>
+      <c r="AE29" t="str">
+        <v/>
+      </c>
+      <c r="AF29" t="str">
+        <v/>
+      </c>
+      <c r="AG29" t="str">
+        <v/>
+      </c>
+      <c r="AH29" t="str">
+        <v/>
+      </c>
+      <c r="AI29" t="str">
+        <v/>
+      </c>
+      <c r="AJ29" t="str">
+        <v/>
+      </c>
+      <c r="AK29" t="str">
+        <v/>
+      </c>
+      <c r="AL29" t="str">
+        <v/>
+      </c>
+      <c r="AM29" t="str">
+        <v/>
+      </c>
+      <c r="AN29" t="str">
+        <v/>
+      </c>
+      <c r="AO29" t="str">
+        <v/>
+      </c>
+      <c r="AP29" t="str">
+        <v/>
+      </c>
+      <c r="AQ29" t="str">
+        <v/>
+      </c>
+      <c r="AR29" t="str">
+        <v/>
+      </c>
+      <c r="AS29" t="str">
+        <v/>
+      </c>
+      <c r="AT29" t="str">
+        <v/>
+      </c>
+      <c r="AU29" t="str">
+        <v/>
+      </c>
+      <c r="AV29" t="str">
+        <v/>
+      </c>
+      <c r="AW29" t="str">
+        <v/>
+      </c>
+      <c r="AX29" t="str">
+        <v/>
+      </c>
+      <c r="AY29" t="str">
+        <v>Z</v>
+      </c>
+      <c r="AZ29" t="str">
+        <v>Z</v>
+      </c>
+      <c r="BA29" t="str">
+        <v>Z</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_523 - Alphabets Staircase.xlsx
+++ b/Excel_Challenge_523 - Alphabets Staircase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D625E0EA-2CC3-4396-B195-1F9BF481AFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF99061B-E778-46B5-800D-661BDB14B848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4899,7 +4899,7 @@
   <dimension ref="A2:BA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="BE6" sqref="BE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel_Challenge_523 - Alphabets Staircase.xlsx
+++ b/Excel_Challenge_523 - Alphabets Staircase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF99061B-E778-46B5-800D-661BDB14B848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52013800-3439-43DD-AF29-5434B09B0A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="28">
   <si>
     <t>R</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -389,60 +395,6 @@
         <a:xfrm>
           <a:off x="3835400" y="3187700"/>
           <a:ext cx="1107440" cy="601131"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>180340</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>48681</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="A close-up of several logos&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6D15AD-20D5-453E-B22F-1D97B5B3BEC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3683000" y="3166110"/>
-          <a:ext cx="1069340" cy="597321"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4896,10 +4848,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C06D7A7-61D8-4A38-A371-60FC886B4CB9}">
-  <dimension ref="A2:BA29"/>
+  <dimension ref="A2:BD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BE6" sqref="BE6"/>
+      <selection activeCell="BC8" sqref="BC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4907,7 +4859,7 @@
     <col min="1" max="53" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4915,7 +4867,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="BC3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" t="str" cm="1">
         <f t="array" ref="A4:BA29">_xlfn.MAKEARRAY(B2,2*B2+1,_xlfn.LAMBDA(_xlpm.r,_xlpm.c,IF(ABS(2*_xlpm.r-_xlpm.c)&lt;2,CHAR(MOD(_xlpm.r-1,26)+65),"")))</f>
         <v>A</v>
@@ -5076,8 +5036,15 @@
       <c r="BA4" t="str">
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BC4" cm="1">
+        <f t="array" ref="BC4:BD4">LINEST({1,3,5},{1,2,3},)</f>
+        <v>2</v>
+      </c>
+      <c r="BD4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <v/>
       </c>
@@ -5237,8 +5204,15 @@
       <c r="BA5" t="str">
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BC5" cm="1">
+        <f t="array" ref="BC5:BD5">LINEST({2,4,6},{1,2,3},)</f>
+        <v>2</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <v/>
       </c>
@@ -5398,8 +5372,15 @@
       <c r="BA6" t="str">
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="BC6" cm="1">
+        <f t="array" ref="BC6:BD6">LINEST({3,5,7},{1,2,3},)</f>
+        <v>2</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <v/>
       </c>
@@ -5560,7 +5541,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <v/>
       </c>
@@ -5721,7 +5702,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <v/>
       </c>
@@ -5882,7 +5863,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <v/>
       </c>
@@ -6043,7 +6024,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <v/>
       </c>
@@ -6204,7 +6185,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <v/>
       </c>
@@ -6365,7 +6346,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <v/>
       </c>
@@ -6526,7 +6507,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <v/>
       </c>
@@ -6687,7 +6668,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <v/>
       </c>
@@ -6848,7 +6829,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <v/>
       </c>
@@ -9105,6 +9086,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>